--- a/Algo 4.0 output Report- VGAT-ChR2.xlsx
+++ b/Algo 4.0 output Report- VGAT-ChR2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Detection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08EBAA46-6E61-42F4-8DFE-9E1528261374}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79827C07-0B4D-4973-9013-1193B886B8B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{BE34E787-DC67-4BEA-B0F3-555C2A64AEA6}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="13227004" sheetId="2" r:id="rId1"/>
     <sheet name="13226009" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
     <author>Michael Chang</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{60A783A9-5634-4614-AAF5-4177AA00F009}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{60A783A9-5634-4614-AAF5-4177AA00F009}">
       <text>
         <r>
           <rPr>
@@ -53,6 +53,104 @@
           <t xml:space="preserve">
 threshold for detection: Avg+3xSigma
 Spike &gt; 90 ms apart</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{4F632C57-4ADD-48E2-B849-B2B4762F7DC7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SLEs always have the first half &gt; 1 (if equal to or less than 1, it is not a SLE)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{B19B1243-729B-435D-AF9E-C4C80EAB7996}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Doesn't look like a ictal event, but it has all the frequency features.
+Again, power will be an important feature to classify events</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{DE62A725-97FC-40DB-9D9A-C4C370A6F9B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Technically, it looks like a seizure, has all the features.
+I think power will be an important feature to utilize</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H14" authorId="0" shapeId="0" xr:uid="{D43B61D3-9A0D-4F79-9098-795A25B5C4DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bonus Point</t>
         </r>
       </text>
     </comment>
@@ -96,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Humans</t>
   </si>
@@ -121,6 +219,27 @@
   <si>
     <t>2nd half</t>
   </si>
+  <si>
+    <t>Missed!</t>
+  </si>
+  <si>
+    <t>Bonus!</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>Frequency content is not enough</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Total Power</t>
+  </si>
+  <si>
+    <t>Power/Sec</t>
+  </si>
 </sst>
 </file>
 
@@ -129,7 +248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +314,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +361,27 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -234,11 +409,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -250,9 +428,26 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -565,868 +760,1611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E064C-00F5-43C9-868E-76E23D23ADF7}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="10.85546875" style="1"/>
-    <col min="6" max="6" width="10.85546875" style="10"/>
-    <col min="7" max="7" width="10.85546875" style="1"/>
-    <col min="8" max="9" width="10.85546875" style="10"/>
-    <col min="10" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="6" width="10.85546875" style="1"/>
+    <col min="7" max="7" width="10.85546875" style="10"/>
+    <col min="8" max="8" width="10.85546875" style="1"/>
+    <col min="9" max="9" width="17.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.85546875" style="15"/>
+    <col min="12" max="13" width="10.85546875" style="10"/>
+    <col min="14" max="15" width="10.85546875" style="1"/>
+    <col min="18" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="12"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="M2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3">
-        <v>2.2084999999999999</v>
-      </c>
-      <c r="D3" s="3">
-        <v>27.142499999999998</v>
-      </c>
-      <c r="E3" s="3">
-        <v>24.934000000000001</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.519999980926514</v>
-      </c>
-      <c r="G3" s="5" t="b">
-        <f>F3&gt;1</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0.58333331346511796</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0.46153846383094799</v>
-      </c>
-      <c r="J3" s="5">
-        <f>H3/I3</f>
-        <v>1.2638888395632848</v>
-      </c>
-      <c r="K3" s="3" t="b">
-        <f>J3&gt;2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
-        <v>39.5199</v>
-      </c>
-      <c r="D4" s="3">
-        <v>118.93819999999999</v>
-      </c>
-      <c r="E4" s="3">
-        <v>79.418300000000002</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.329113930463791</v>
-      </c>
-      <c r="G4" s="5" t="b">
-        <f t="shared" ref="G4:G25" si="0">F4&gt;1</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0.35897436738014199</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0.30000001192092901</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" ref="J4:J25" si="1">H4/I4</f>
-        <v>1.1965811770526091</v>
-      </c>
-      <c r="K4" s="3" t="b">
-        <f t="shared" ref="K4:K23" si="2">J4&gt;2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>692.10890000000006</v>
-      </c>
-      <c r="B5" s="3">
-        <v>738.84760000000006</v>
-      </c>
-      <c r="C5" s="3">
-        <v>130.453</v>
-      </c>
-      <c r="D5" s="3">
-        <v>765.34059999999999</v>
-      </c>
-      <c r="E5" s="3">
-        <v>634.88760000000002</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.467716544866562</v>
-      </c>
-      <c r="G5" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.223974764347076</v>
-      </c>
-      <c r="I5" s="9">
-        <v>0.71069180965423595</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="1"/>
-        <v>0.31515033845126716</v>
-      </c>
-      <c r="K5" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>843.83080000000007</v>
-      </c>
-      <c r="B6" s="3">
-        <v>915.50010000000009</v>
-      </c>
-      <c r="C6" s="3">
-        <v>843.67010000000005</v>
-      </c>
-      <c r="D6" s="3">
-        <v>915.29229999999995</v>
-      </c>
-      <c r="E6" s="3">
-        <v>71.622200000000007</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1.48611116409302</v>
-      </c>
-      <c r="G6" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="15">
+        <v>132.8366</v>
+      </c>
+      <c r="E3" s="15">
+        <v>150.59299999999999</v>
+      </c>
+      <c r="F3" s="15">
+        <v>17.756399999999999</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0.52941179275512695</v>
+      </c>
+      <c r="H3" s="18" t="b">
+        <f>G3&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>47.962744427326498</v>
+      </c>
+      <c r="J3" s="15">
+        <v>2.8213379074897902</v>
+      </c>
+      <c r="K3" s="23" t="b">
+        <f>J3&gt;30</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0.44444444775581399</v>
+      </c>
+      <c r="N3" s="16">
+        <f>L3/M3</f>
+        <v>1.4062499895226199</v>
+      </c>
+      <c r="O3" s="22" t="b">
+        <f>N3&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15">
+        <v>237.34219999999999</v>
+      </c>
+      <c r="E4" s="15">
+        <v>293.93950000000001</v>
+      </c>
+      <c r="F4" s="15">
+        <v>56.597299999999997</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.45614033937454201</v>
+      </c>
+      <c r="H4" s="18" t="b">
+        <f t="shared" ref="H4:H33" si="0">G4&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>1381.5409389574099</v>
+      </c>
+      <c r="J4" s="23">
+        <v>24.237560332586199</v>
+      </c>
+      <c r="K4" s="23" t="b">
+        <f t="shared" ref="K4:K33" si="1">J4&gt;30</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
+        <v>0.46428570151329002</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0.44827586412429798</v>
+      </c>
+      <c r="N4" s="16">
+        <f t="shared" ref="N4:N33" si="2">L4/M4</f>
+        <v>1.0357142524732335</v>
+      </c>
+      <c r="O4" s="22" t="b">
+        <f t="shared" ref="O4:O33" si="3">N4&gt;1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="15">
+        <v>333.8338</v>
+      </c>
+      <c r="E5" s="15">
+        <v>382.3648</v>
+      </c>
+      <c r="F5" s="15">
+        <v>48.530999999999999</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.46938776969909701</v>
+      </c>
+      <c r="H5" s="18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>956.01563187668296</v>
+      </c>
+      <c r="J5" s="15">
+        <v>19.5105230995242</v>
+      </c>
+      <c r="K5" s="23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0.45833334326744102</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0.479999989271164</v>
+      </c>
+      <c r="N5" s="16">
+        <f t="shared" si="2"/>
+        <v>0.95486115314997866</v>
+      </c>
+      <c r="O5" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15">
+        <v>452.31290000000001</v>
+      </c>
+      <c r="E6" s="15">
+        <v>494.26839999999999</v>
+      </c>
+      <c r="F6" s="15">
+        <v>41.955500000000001</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1.0243902206420901</v>
+      </c>
+      <c r="H6" s="21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1817.4908755552899</v>
+      </c>
+      <c r="J6" s="15">
+        <v>44.329045745250902</v>
+      </c>
+      <c r="K6" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1.1000000238418599</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0.95238095521926902</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" si="2"/>
+        <v>1.1550000215917844</v>
+      </c>
+      <c r="O6" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15">
+        <v>554.24709999999993</v>
+      </c>
+      <c r="C7" s="15">
+        <v>602.29489999999998</v>
+      </c>
+      <c r="D7" s="15">
+        <v>554.2278</v>
+      </c>
+      <c r="E7" s="15">
+        <v>611.87919999999997</v>
+      </c>
+      <c r="F7" s="15">
+        <v>57.651400000000002</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1.1578947305679299</v>
+      </c>
+      <c r="H7" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="15">
+        <v>2811.4324267575398</v>
+      </c>
+      <c r="J7" s="15">
+        <v>49.323375908027103</v>
+      </c>
+      <c r="K7" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="15">
+        <v>1.32142853736877</v>
+      </c>
+      <c r="M7" s="15">
+        <v>1</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" si="2"/>
+        <v>1.32142853736877</v>
+      </c>
+      <c r="O7" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15">
+        <v>719.73929999999996</v>
+      </c>
+      <c r="E8" s="15">
+        <v>746.1268</v>
+      </c>
+      <c r="F8" s="15">
+        <v>26.387499999999999</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.96153843402862604</v>
+      </c>
+      <c r="H8" s="18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>713.77490443851195</v>
+      </c>
+      <c r="J8" s="23">
+        <v>27.452880939942801</v>
+      </c>
+      <c r="K8" s="23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>1</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0.92857140302658103</v>
+      </c>
+      <c r="N8" s="16">
+        <f t="shared" si="2"/>
+        <v>1.0769231065490548</v>
+      </c>
+      <c r="O8" s="22" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15">
+        <v>788.58719999999994</v>
+      </c>
+      <c r="C9" s="15">
+        <v>834.01619999999991</v>
+      </c>
+      <c r="D9" s="15">
+        <v>788.61580000000004</v>
+      </c>
+      <c r="E9" s="15">
+        <v>827.03399999999999</v>
+      </c>
+      <c r="F9" s="15">
+        <v>38.418199999999999</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="15">
+        <v>2895.6439988883399</v>
+      </c>
+      <c r="J9" s="15">
+        <v>76.201157865482699</v>
+      </c>
+      <c r="K9" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="15">
+        <v>1.21052634716034</v>
+      </c>
+      <c r="M9" s="15">
+        <v>1.70000004768372</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" si="2"/>
+        <v>0.7120743018858755</v>
+      </c>
+      <c r="O9" s="22" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15">
+        <v>857.654</v>
+      </c>
+      <c r="E10" s="15">
+        <v>868.66240000000005</v>
+      </c>
+      <c r="F10" s="15">
+        <v>11.008400000000099</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1.29999995231628</v>
+      </c>
+      <c r="H10" s="21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>600.31294505535004</v>
+      </c>
+      <c r="J10" s="15">
+        <v>60.031294505535001</v>
+      </c>
+      <c r="K10" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="15">
+        <v>1.3999999761581401</v>
+      </c>
+      <c r="M10" s="15">
+        <v>1</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3999999761581401</v>
+      </c>
+      <c r="O10" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" s="15">
+        <v>926.3673</v>
+      </c>
+      <c r="E11" s="15">
+        <v>941.84220000000005</v>
+      </c>
+      <c r="F11" s="15">
+        <v>15.4749</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="H11" s="18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <v>158.85055497764299</v>
+      </c>
+      <c r="J11" s="23">
+        <v>10.5900369985095</v>
+      </c>
+      <c r="K11" s="23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0.85714286565780595</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="N11" s="16">
+        <f t="shared" si="2"/>
+        <v>1.142857154210408</v>
+      </c>
+      <c r="O11" s="22" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15">
+        <v>995.2136999999999</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1019.2613999999999</v>
+      </c>
+      <c r="D12" s="15">
+        <v>995.24260000000004</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1051.4944</v>
+      </c>
+      <c r="F12" s="15">
+        <v>56.251800000000003</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1.20000004768372</v>
+      </c>
+      <c r="H12" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="15">
+        <v>3418.2556196127998</v>
+      </c>
+      <c r="J12" s="15">
+        <v>62.150102174778297</v>
+      </c>
+      <c r="K12" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="15">
+        <v>1.5925925970077499</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0.82142859697341897</v>
+      </c>
+      <c r="N12" s="16">
+        <f t="shared" si="2"/>
+        <v>1.9388083186727494</v>
+      </c>
+      <c r="O12" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1132.9937</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1145.5127</v>
+      </c>
+      <c r="F13" s="15">
+        <v>12.519</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0.91666668653488204</v>
+      </c>
+      <c r="H13" s="18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="15">
+        <v>141.07713596521401</v>
+      </c>
+      <c r="J13" s="23">
+        <v>11.756427997101101</v>
+      </c>
+      <c r="K13" s="23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="15">
+        <v>0.83333331346511796</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1</v>
+      </c>
+      <c r="N13" s="16">
+        <f t="shared" si="2"/>
+        <v>0.83333331346511796</v>
+      </c>
+      <c r="O13" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1201.8692000000001</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1238.1987999999999</v>
+      </c>
+      <c r="F14" s="15">
+        <v>36.3295999999998</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1.1944444179534901</v>
+      </c>
+      <c r="H14" s="20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1362.47852976528</v>
+      </c>
+      <c r="J14" s="15">
+        <v>37.846625826813202</v>
+      </c>
+      <c r="K14" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="15">
+        <v>1.38888883590698</v>
+      </c>
+      <c r="M14" s="15">
+        <v>1.0526316165924099</v>
+      </c>
+      <c r="N14" s="16">
+        <f t="shared" si="2"/>
+        <v>1.3194443469246206</v>
+      </c>
+      <c r="O14" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1270.7157000000004</v>
+      </c>
+      <c r="C15" s="15">
+        <v>1303.4889000000005</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1270.7427</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1287.2766999999999</v>
+      </c>
+      <c r="F15" s="15">
+        <v>16.533999999999899</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="H15" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="15">
+        <v>1049.62617840137</v>
+      </c>
+      <c r="J15" s="15">
+        <v>65.601636150085398</v>
+      </c>
+      <c r="K15" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="15">
+        <v>1.625</v>
+      </c>
+      <c r="M15" s="15">
+        <v>1.77777779102325</v>
+      </c>
+      <c r="N15" s="16">
+        <f t="shared" si="2"/>
+        <v>0.914062493189706</v>
+      </c>
+      <c r="O15" s="22" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="19">
+        <v>1408.4962</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1433.5556999999999</v>
+      </c>
+      <c r="F16" s="15">
+        <v>25.059499999999801</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.875</v>
+      </c>
+      <c r="H16" s="18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>308.14511850252899</v>
+      </c>
+      <c r="J16" s="23">
+        <v>12.839379937605401</v>
+      </c>
+      <c r="K16" s="23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="15">
+        <v>0.91666668653488204</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0.76923078298568703</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" si="2"/>
+        <v>1.1916666711866863</v>
+      </c>
+      <c r="O16" s="22" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1477.3422000000007</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1511.4578000000008</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1477.3715999999999</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1511.3542</v>
+      </c>
+      <c r="F17" s="15">
+        <v>33.982600000000097</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1.5588235855102499</v>
+      </c>
+      <c r="H17" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="15">
+        <v>2055.76814023212</v>
+      </c>
+      <c r="J17" s="15">
+        <v>60.4637688303565</v>
+      </c>
+      <c r="K17" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="15">
+        <v>1.58823525905609</v>
+      </c>
+      <c r="M17" s="15">
+        <v>1.61111116409302</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" si="2"/>
+        <v>0.98580116285780439</v>
+      </c>
+      <c r="O17" s="22" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1615.123</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1642.5637999999999</v>
+      </c>
+      <c r="F18" s="15">
+        <v>27.4407999999999</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.55555558204650901</v>
+      </c>
+      <c r="H18" s="18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="15">
+        <v>115.205183420732</v>
+      </c>
+      <c r="J18" s="23">
+        <v>4.2668586452123103</v>
+      </c>
+      <c r="K18" s="23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0.69230771064758301</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0.42857143282890298</v>
+      </c>
+      <c r="N18" s="16">
+        <f t="shared" si="2"/>
+        <v>1.61538464213029</v>
+      </c>
+      <c r="O18" s="22" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1683.968700000001</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1729.822200000001</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1683.9985999999999</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1716.7426</v>
+      </c>
+      <c r="F19" s="15">
+        <v>32.744000000000099</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1.27272725105286</v>
+      </c>
+      <c r="H19" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="15">
+        <v>1757.7089276233601</v>
+      </c>
+      <c r="J19" s="15">
+        <v>53.263906897677501</v>
+      </c>
+      <c r="K19" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="15">
+        <v>1.4375</v>
+      </c>
+      <c r="M19" s="15">
+        <v>1.11764705181122</v>
+      </c>
+      <c r="N19" s="16">
+        <f t="shared" si="2"/>
+        <v>1.2861842185960561</v>
+      </c>
+      <c r="O19" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1890.5952000000013</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1914.8328000000013</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1890.6279999999999</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1914.6282000000001</v>
+      </c>
+      <c r="F20" s="15">
+        <v>24.000200000000198</v>
+      </c>
+      <c r="G20" s="15">
+        <v>1.7083333730697601</v>
+      </c>
+      <c r="H20" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="15">
+        <v>1456.4120156111701</v>
+      </c>
+      <c r="J20" s="15">
+        <v>60.683833983798799</v>
+      </c>
+      <c r="K20" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L20" s="15">
         <v>1.5833333730697601</v>
       </c>
-      <c r="I6" s="9">
-        <v>1.37837839126587</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="1"/>
-        <v>1.1486928285459148</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>995.54829999999993</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1040.809</v>
-      </c>
-      <c r="C7" s="3">
-        <v>995.38729999999998</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1056.5477000000001</v>
-      </c>
-      <c r="E7" s="3">
-        <v>61.160400000000003</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1.42622947692871</v>
-      </c>
-      <c r="G7" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="9">
-        <v>1.9666666984558101</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0.90322577953338601</v>
-      </c>
-      <c r="J7" s="3">
-        <f t="shared" si="1"/>
-        <v>2.177381052467088</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>1118.2051999999999</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1181.2822999999999</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1118.0427999999999</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1180.8578</v>
-      </c>
-      <c r="E8" s="3">
-        <v>62.814999999999998</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1.31746029853821</v>
-      </c>
-      <c r="G8" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1.58064520359039</v>
-      </c>
-      <c r="I8" s="9">
-        <v>1.0625</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="1"/>
-        <v>1.4876660739674259</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>1317.1990000000001</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1376.3197</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1316.9579000000001</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1397.9484</v>
-      </c>
-      <c r="E9" s="3">
-        <v>80.990499999999997</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1.6790122985839799</v>
-      </c>
-      <c r="G9" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>2.4749999046325701</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0.90243899822235096</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="1"/>
-        <v>2.7425675414159767</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>1480.1411000000001</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1550.8947000000001</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1479.9727</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1550.5255999999999</v>
-      </c>
-      <c r="E10" s="3">
-        <v>70.552899999999994</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1.53521132469177</v>
-      </c>
-      <c r="G10" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H10" s="9">
-        <v>2.0285713672637899</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1.0555555820465099</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9218044049663383</v>
-      </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>1581.9865</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1635.1211000000001</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1581.8163999999999</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1634.0758000000001</v>
-      </c>
-      <c r="E11" s="3">
-        <v>52.259399999999999</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.71153843402862604</v>
-      </c>
-      <c r="G11" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0.84615385532379195</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0.59259259700775202</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4278846202203281</v>
-      </c>
-      <c r="K11" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>1683.8302000000001</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1771.3882000000001</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1683.6712</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1786.4303</v>
-      </c>
-      <c r="E12" s="3">
-        <v>102.7591</v>
-      </c>
-      <c r="F12" s="9">
-        <v>1.4271844625473</v>
-      </c>
-      <c r="G12" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="9">
-        <v>1.98039209842682</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0.88461536169052102</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="1"/>
-        <v>2.2387041692812608</v>
-      </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>1887.5141000000001</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1982.2073</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1887.2783999999999</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1989.3570999999999</v>
-      </c>
-      <c r="E13" s="3">
-        <v>102.0787</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1.49019610881805</v>
-      </c>
-      <c r="G13" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="9">
-        <v>2.0392158031463601</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0.94230771064758301</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="1"/>
-        <v>2.1640657081591193</v>
-      </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>2091.1911</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2186.4101000000001</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2090.9778000000001</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2241.5772000000002</v>
-      </c>
-      <c r="E14" s="3">
-        <v>150.5994</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1.25827813148499</v>
-      </c>
-      <c r="G14" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1.7200000286102299</v>
-      </c>
-      <c r="I14" s="9">
-        <v>0.80263155698776301</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="1"/>
-        <v>2.1429509139477472</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>2294.8737999999998</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2363.7217999999998</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2294.7161000000001</v>
-      </c>
-      <c r="D15" s="3">
-        <v>2363.5369999999998</v>
-      </c>
-      <c r="E15" s="3">
-        <v>68.820899999999995</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1.6376811265945399</v>
-      </c>
-      <c r="G15" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H15" s="9">
-        <v>2.2352941036224401</v>
-      </c>
-      <c r="I15" s="9">
-        <v>1.0571428537368801</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="1"/>
-        <v>2.1144674021310639</v>
-      </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>2498.5335</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2610.7525999999998</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2498.3225000000002</v>
-      </c>
-      <c r="D16" s="3">
-        <v>2610.6125999999999</v>
-      </c>
-      <c r="E16" s="3">
-        <v>112.2901</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1.4553571939468399</v>
-      </c>
-      <c r="G16" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="9">
-        <v>2.05357146263123</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0.84210526943206798</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="1"/>
-        <v>2.4386160937054795</v>
-      </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>2702.2017999999998</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2795.4930999999997</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2702.0475999999999</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2839.2997999999998</v>
-      </c>
-      <c r="E17" s="3">
-        <v>137.25219999999999</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1.2408759593963601</v>
-      </c>
-      <c r="G17" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H17" s="9">
-        <v>1.6764706373214699</v>
-      </c>
-      <c r="I17" s="9">
-        <v>0.81159418821334794</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="1"/>
-        <v>2.0656513583618312</v>
-      </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>2905.8652000000002</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2997.6413000000002</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2905.7078000000001</v>
-      </c>
-      <c r="D18" s="3">
-        <v>2997.3642</v>
-      </c>
-      <c r="E18" s="3">
-        <v>91.656400000000005</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1.5326087474823</v>
-      </c>
-      <c r="G18" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H18" s="9">
-        <v>1.9130434989929199</v>
-      </c>
-      <c r="I18" s="9">
-        <v>1.1276595592498799</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" si="1"/>
-        <v>1.696472559737336</v>
-      </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
-        <v>3007.6918999999998</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3037.9576999999999</v>
-      </c>
-      <c r="E19" s="3">
-        <v>30.265799999999999</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0.86666667461395297</v>
-      </c>
-      <c r="G19" s="6" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="9">
-        <v>1.2666666507720901</v>
-      </c>
-      <c r="I19" s="9">
-        <v>0.625</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="1"/>
-        <v>2.026666641235344</v>
-      </c>
-      <c r="K19" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>3109.5308</v>
-      </c>
-      <c r="B20" s="3">
-        <v>3199.7968000000001</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3109.3674000000001</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3199.4405999999999</v>
-      </c>
-      <c r="E20" s="3">
-        <v>90.0732</v>
-      </c>
-      <c r="F20" s="9">
-        <v>1.4111111164093</v>
-      </c>
-      <c r="G20" s="4" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H20" s="9">
-        <v>1.7333333492279099</v>
-      </c>
-      <c r="I20" s="9">
-        <v>1.1086956262588501</v>
-      </c>
-      <c r="J20" s="3">
-        <f t="shared" si="1"/>
-        <v>1.5633987436902037</v>
-      </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
-        <v>3211.3543</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3247.9000999999998</v>
-      </c>
-      <c r="E21" s="3">
-        <v>36.5458</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0.94594591856002797</v>
-      </c>
-      <c r="G21" s="7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="9">
-        <v>1.3333333730697601</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0.57894736528396595</v>
-      </c>
-      <c r="J21" s="5">
-        <f t="shared" si="1"/>
-        <v>2.3030303841451594</v>
-      </c>
-      <c r="K21" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>3314.0886999999998</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3384.7324999999996</v>
-      </c>
-      <c r="C22" s="3">
-        <v>3314.0106999999998</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3384.4395</v>
-      </c>
-      <c r="E22" s="3">
-        <v>70.428799999999995</v>
-      </c>
-      <c r="F22" s="9">
-        <v>1.38571429252625</v>
-      </c>
-      <c r="G22" s="8" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H22" s="9">
-        <v>1.8571428060531601</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.94444441795349099</v>
-      </c>
-      <c r="J22" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9663865556825333</v>
-      </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3">
-        <v>3415.9106000000002</v>
-      </c>
-      <c r="D23" s="3">
-        <v>3428.5127000000002</v>
-      </c>
-      <c r="E23" s="3">
-        <v>12.6021</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0.46153846383094799</v>
-      </c>
-      <c r="G23" s="7" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="9">
-        <v>0.33333334326744102</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0.57142859697341897</v>
-      </c>
-      <c r="J23" s="5">
-        <f t="shared" si="1"/>
-        <v>0.5833333246409903</v>
-      </c>
-      <c r="K23" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>3517.7399</v>
-      </c>
-      <c r="B24" s="3">
-        <v>3605.1507999999999</v>
-      </c>
-      <c r="C24" s="3">
-        <v>3517.5131000000001</v>
-      </c>
-      <c r="D24" s="3">
-        <v>3604.7662</v>
-      </c>
-      <c r="E24" s="3">
-        <v>87.253100000000003</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1.5862069129943801</v>
-      </c>
-      <c r="G24" s="8" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H24" s="9">
-        <v>2.2790696620941202</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0.909090936183929</v>
-      </c>
-      <c r="J24" s="3">
-        <f t="shared" si="1"/>
-        <v>2.5069765535898099</v>
-      </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3">
-        <v>3715.3768</v>
-      </c>
-      <c r="D25" s="3">
-        <v>3823.6433999999999</v>
-      </c>
-      <c r="E25" s="3">
-        <v>108.2666</v>
-      </c>
-      <c r="F25" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="G25" s="8" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H25" s="9">
-        <v>2.1666667461395299</v>
-      </c>
-      <c r="I25" s="9">
-        <v>0.818181812763214</v>
-      </c>
-      <c r="J25" s="3">
-        <f t="shared" si="1"/>
-        <v>2.6481482628196411</v>
-      </c>
-      <c r="K25" s="3"/>
+      <c r="M20" s="15">
+        <v>1.8461538553237899</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" si="2"/>
+        <v>0.85763890615284888</v>
+      </c>
+      <c r="O20" s="22" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="15">
+        <v>2028.3462000000015</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2065.6045000000017</v>
+      </c>
+      <c r="D21" s="15">
+        <v>2028.3794</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2073.0439000000001</v>
+      </c>
+      <c r="F21" s="15">
+        <v>44.664500000000103</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1.75</v>
+      </c>
+      <c r="H21" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="15">
+        <v>2586.81855631608</v>
+      </c>
+      <c r="J21" s="15">
+        <v>58.791330825365499</v>
+      </c>
+      <c r="K21" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="15">
+        <v>2.0454545021057098</v>
+      </c>
+      <c r="M21" s="15">
+        <v>1.3913043737411499</v>
+      </c>
+      <c r="N21" s="16">
+        <f t="shared" si="2"/>
+        <v>1.4701703960044212</v>
+      </c>
+      <c r="O21" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="15">
+        <v>2166.1307000000002</v>
+      </c>
+      <c r="E22" s="15">
+        <v>2183.1165999999998</v>
+      </c>
+      <c r="F22" s="15">
+        <v>16.985899999999699</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0.6875</v>
+      </c>
+      <c r="H22" s="18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="15">
+        <v>102.408511847119</v>
+      </c>
+      <c r="J22" s="23">
+        <v>6.4005319904449403</v>
+      </c>
+      <c r="K22" s="23" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0.88888889551162698</v>
+      </c>
+      <c r="N22" s="16">
+        <f t="shared" si="2"/>
+        <v>0.56249999580904864</v>
+      </c>
+      <c r="O22" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="15">
+        <v>2234.9727000000016</v>
+      </c>
+      <c r="C23" s="15">
+        <v>2267.8392000000017</v>
+      </c>
+      <c r="D23" s="15">
+        <v>2235.0064000000002</v>
+      </c>
+      <c r="E23" s="15">
+        <v>2286.6275000000001</v>
+      </c>
+      <c r="F23" s="15">
+        <v>51.621099999999799</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1.6538461446762101</v>
+      </c>
+      <c r="H23" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="15">
+        <v>2932.0801110050502</v>
+      </c>
+      <c r="J23" s="15">
+        <v>56.386155980866299</v>
+      </c>
+      <c r="K23" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L23" s="15">
+        <v>2.4615385532379199</v>
+      </c>
+      <c r="M23" s="15">
+        <v>1</v>
+      </c>
+      <c r="N23" s="16">
+        <f t="shared" si="2"/>
+        <v>2.4615385532379199</v>
+      </c>
+      <c r="O23" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="15">
+        <v>2441.5992000000019</v>
+      </c>
+      <c r="C24" s="15">
+        <v>2472.4637000000021</v>
+      </c>
+      <c r="D24" s="15">
+        <v>2441.634</v>
+      </c>
+      <c r="E24" s="15">
+        <v>2482.6649000000002</v>
+      </c>
+      <c r="F24" s="15">
+        <v>41.030900000000202</v>
+      </c>
+      <c r="G24" s="15">
+        <v>1.90243899822235</v>
+      </c>
+      <c r="H24" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="15">
+        <v>2488.4354702854198</v>
+      </c>
+      <c r="J24" s="15">
+        <v>60.6935480557419</v>
+      </c>
+      <c r="K24" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L24" s="15">
+        <v>2.2999999523162802</v>
+      </c>
+      <c r="M24" s="15">
+        <v>1.52380955219269</v>
+      </c>
+      <c r="N24" s="16">
+        <f t="shared" si="2"/>
+        <v>1.5093749405932577</v>
+      </c>
+      <c r="O24" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="15">
+        <v>2648.2257000000022</v>
+      </c>
+      <c r="C25" s="15">
+        <v>2680.7912000000024</v>
+      </c>
+      <c r="D25" s="15">
+        <v>2648.2572</v>
+      </c>
+      <c r="E25" s="15">
+        <v>2680.9596999999999</v>
+      </c>
+      <c r="F25" s="15">
+        <v>32.702499999999901</v>
+      </c>
+      <c r="G25" s="15">
+        <v>2.2424242496490501</v>
+      </c>
+      <c r="H25" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="15">
+        <v>2008.24254196428</v>
+      </c>
+      <c r="J25" s="15">
+        <v>60.855834604978298</v>
+      </c>
+      <c r="K25" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L25" s="15">
+        <v>2.125</v>
+      </c>
+      <c r="M25" s="15">
+        <v>2.3529412746429399</v>
+      </c>
+      <c r="N25" s="16">
+        <f t="shared" si="2"/>
+        <v>0.90312496231869188</v>
+      </c>
+      <c r="O25" s="22" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="15">
+        <v>2854.8522000000025</v>
+      </c>
+      <c r="C26" s="15">
+        <v>2892.8002000000024</v>
+      </c>
+      <c r="D26" s="15">
+        <v>2854.8827000000001</v>
+      </c>
+      <c r="E26" s="15">
+        <v>2902.9475000000002</v>
+      </c>
+      <c r="F26" s="15">
+        <v>48.064800000000098</v>
+      </c>
+      <c r="G26" s="15">
+        <v>1.7708333730697601</v>
+      </c>
+      <c r="H26" s="17" t="b">
+        <f>G26&gt;1</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="15">
+        <v>2574.5560233195602</v>
+      </c>
+      <c r="J26" s="15">
+        <v>53.6365838191576</v>
+      </c>
+      <c r="K26" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L26" s="15">
+        <v>2.25</v>
+      </c>
+      <c r="M26" s="15">
+        <v>1.2799999713897701</v>
+      </c>
+      <c r="N26" s="16">
+        <f t="shared" si="2"/>
+        <v>1.7578125392901727</v>
+      </c>
+      <c r="O26" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="15">
+        <v>3061.4787000000028</v>
+      </c>
+      <c r="C27" s="15">
+        <v>3115.945300000003</v>
+      </c>
+      <c r="D27" s="15">
+        <v>3061.5074</v>
+      </c>
+      <c r="E27" s="15">
+        <v>3115.6253000000002</v>
+      </c>
+      <c r="F27" s="15">
+        <v>54.117900000000198</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1.7037037611007699</v>
+      </c>
+      <c r="H27" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="15">
+        <v>2673.63950882879</v>
+      </c>
+      <c r="J27" s="15">
+        <v>49.511842756088598</v>
+      </c>
+      <c r="K27" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="15">
+        <v>2.3333332538604701</v>
+      </c>
+      <c r="M27" s="15">
+        <v>1.17857146263123</v>
+      </c>
+      <c r="N27" s="16">
+        <f t="shared" si="2"/>
+        <v>1.9797978551518349</v>
+      </c>
+      <c r="O27" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="15">
+        <v>3268.1052000000032</v>
+      </c>
+      <c r="C28" s="15">
+        <v>3302.5893000000033</v>
+      </c>
+      <c r="D28" s="15">
+        <v>3268.1309999999999</v>
+      </c>
+      <c r="E28" s="15">
+        <v>3331.2426999999998</v>
+      </c>
+      <c r="F28" s="15">
+        <v>63.1116999999999</v>
+      </c>
+      <c r="G28" s="15">
+        <v>1.55072462558746</v>
+      </c>
+      <c r="H28" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="15">
+        <v>2877.2819067438299</v>
+      </c>
+      <c r="J28" s="15">
+        <v>41.6997377788961</v>
+      </c>
+      <c r="K28" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="15">
+        <v>2.4411764144897501</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0.68571430444717396</v>
+      </c>
+      <c r="N28" s="16">
+        <f t="shared" si="2"/>
+        <v>3.5600488405413064</v>
+      </c>
+      <c r="O28" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15">
+        <v>3474.7317000000035</v>
+      </c>
+      <c r="C29" s="15">
+        <v>3504.9341000000036</v>
+      </c>
+      <c r="D29" s="15">
+        <v>3474.7555000000002</v>
+      </c>
+      <c r="E29" s="15">
+        <v>3528.2550000000001</v>
+      </c>
+      <c r="F29" s="15">
+        <v>53.499499999999898</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1.6851851940155</v>
+      </c>
+      <c r="H29" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="15">
+        <v>2440.9232128600602</v>
+      </c>
+      <c r="J29" s="15">
+        <v>45.202281719630797</v>
+      </c>
+      <c r="K29" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L29" s="15">
+        <v>2.2962963581085201</v>
+      </c>
+      <c r="M29" s="15">
+        <v>1.1071428060531601</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" si="2"/>
+        <v>2.0740742256137299</v>
+      </c>
+      <c r="O29" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="15">
+        <v>3681.3582000000038</v>
+      </c>
+      <c r="C30" s="15">
+        <v>3719.903500000004</v>
+      </c>
+      <c r="D30" s="15">
+        <v>3681.3796000000002</v>
+      </c>
+      <c r="E30" s="15">
+        <v>3751.9942000000001</v>
+      </c>
+      <c r="F30" s="15">
+        <v>70.614599999999896</v>
+      </c>
+      <c r="G30" s="15">
+        <v>1.5492957830429099</v>
+      </c>
+      <c r="H30" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="15">
+        <v>2826.3016213443402</v>
+      </c>
+      <c r="J30" s="15">
+        <v>39.807065089356797</v>
+      </c>
+      <c r="K30" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="15">
+        <v>2.45714282989502</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0.66666668653488204</v>
+      </c>
+      <c r="N30" s="16">
+        <f t="shared" si="2"/>
+        <v>3.6857141349996865</v>
+      </c>
+      <c r="O30" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="15">
+        <v>3887.9847000000041</v>
+      </c>
+      <c r="C31" s="15">
+        <v>3930.3406000000041</v>
+      </c>
+      <c r="D31" s="15">
+        <v>3887.9980999999998</v>
+      </c>
+      <c r="E31" s="15">
+        <v>3941.2606000000001</v>
+      </c>
+      <c r="F31" s="15">
+        <v>53.262500000000301</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1.6981132030487101</v>
+      </c>
+      <c r="H31" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="15">
+        <v>2117.2972148161598</v>
+      </c>
+      <c r="J31" s="15">
+        <v>39.949004053135198</v>
+      </c>
+      <c r="K31" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L31" s="15">
+        <v>2.3076922893524201</v>
+      </c>
+      <c r="M31" s="15">
+        <v>1.11111116409302</v>
+      </c>
+      <c r="N31" s="16">
+        <f t="shared" si="2"/>
+        <v>2.0769229613817695</v>
+      </c>
+      <c r="O31" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="15">
+        <v>4094.6112000000044</v>
+      </c>
+      <c r="C32" s="15">
+        <v>4133.4915000000046</v>
+      </c>
+      <c r="D32" s="15">
+        <v>4094.6138999999998</v>
+      </c>
+      <c r="E32" s="15">
+        <v>4146.7075000000004</v>
+      </c>
+      <c r="F32" s="15">
+        <v>52.093600000000599</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1.7115384340286299</v>
+      </c>
+      <c r="H32" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I32" s="15">
+        <v>2016.05834039416</v>
+      </c>
+      <c r="J32" s="15">
+        <v>38.770352699887702</v>
+      </c>
+      <c r="K32" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L32" s="15">
+        <v>2.38461542129517</v>
+      </c>
+      <c r="M32" s="15">
+        <v>1.11111116409302</v>
+      </c>
+      <c r="N32" s="16">
+        <f t="shared" si="2"/>
+        <v>2.1461537768290615</v>
+      </c>
+      <c r="O32" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="15">
+        <v>4301.2377000000042</v>
+      </c>
+      <c r="C33" s="15">
+        <v>4347.0371000000041</v>
+      </c>
+      <c r="D33" s="15">
+        <v>4301.2298000000001</v>
+      </c>
+      <c r="E33" s="15">
+        <v>4358.5628999999999</v>
+      </c>
+      <c r="F33" s="15">
+        <v>57.333099999999803</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1.68421053886414</v>
+      </c>
+      <c r="H33" s="17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="15">
+        <v>1987.5577471997401</v>
+      </c>
+      <c r="J33" s="15">
+        <v>34.8694341613989</v>
+      </c>
+      <c r="K33" s="24" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L33" s="15">
+        <v>2.25</v>
+      </c>
+      <c r="M33" s="15">
+        <v>1.1379309892654399</v>
+      </c>
+      <c r="N33" s="16">
+        <f t="shared" si="2"/>
+        <v>1.9772728058424929</v>
+      </c>
+      <c r="O33" s="12" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Algo 4.0 output Report- VGAT-ChR2.xlsx
+++ b/Algo 4.0 output Report- VGAT-ChR2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\GitHub\Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79827C07-0B4D-4973-9013-1193B886B8B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F79E404-8B3F-40C9-A492-D97D7C3E7C08}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{BE34E787-DC67-4BEA-B0F3-555C2A64AEA6}"/>
   </bookViews>
   <sheets>
-    <sheet name="13227004" sheetId="2" r:id="rId1"/>
-    <sheet name="13226009" sheetId="1" r:id="rId2"/>
+    <sheet name="13725002" sheetId="3" r:id="rId1"/>
+    <sheet name="13227004" sheetId="2" r:id="rId2"/>
+    <sheet name="13226009" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <extLst>
@@ -26,6 +27,65 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Michael Chang</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{877A8258-B598-426D-9574-80D9FA9DBD45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+threshold for detection: Avg+3xSigma
+Spike &gt; 90 ms apart</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{B9690C6E-D75C-4366-B0B9-7BB854786283}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Michael Chang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SLEs always have the first half &gt; 1 (if equal to or less than 1, it is not a SLE)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Michael Chang</author>
@@ -158,7 +218,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Michael Chang</author>
@@ -194,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
   <si>
     <t>Humans</t>
   </si>
@@ -240,6 +300,24 @@
   <si>
     <t>Power/Sec</t>
   </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Missed</t>
+  </si>
+  <si>
+    <t>Not a seizure</t>
+  </si>
+  <si>
+    <t>Maybe, 2 in one</t>
+  </si>
+  <si>
+    <t>Artifact</t>
+  </si>
+  <si>
+    <t>Maybe, drift</t>
+  </si>
 </sst>
 </file>
 
@@ -248,7 +326,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,13 +407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -350,7 +421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,11 +442,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -409,14 +475,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -433,21 +498,29 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -759,11 +832,1456 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFB8381-DD31-440A-AEBF-B7504465E3D2}">
+  <dimension ref="A1:Q30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="26"/>
+    <col min="2" max="6" width="10.85546875" style="15"/>
+    <col min="7" max="7" width="10.85546875" style="25"/>
+    <col min="8" max="10" width="10.85546875" style="24"/>
+    <col min="11" max="12" width="10.85546875" style="25"/>
+    <col min="13" max="13" width="10.85546875" style="15"/>
+    <col min="15" max="16" width="10.85546875" style="24"/>
+    <col min="17" max="16384" width="10.85546875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26"/>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="12"/>
+      <c r="N1"/>
+      <c r="Q1" s="15"/>
+    </row>
+    <row r="2" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2"/>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="27">
+        <v>249.4502</v>
+      </c>
+      <c r="E3" s="27">
+        <v>262.01850000000002</v>
+      </c>
+      <c r="F3" s="27">
+        <v>12.568300000000001</v>
+      </c>
+      <c r="G3" s="27">
+        <v>1.38461542129517</v>
+      </c>
+      <c r="H3" s="28" t="b">
+        <f>G3&gt;1</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="27">
+        <v>10.499909599391399</v>
+      </c>
+      <c r="J3" s="28" t="b">
+        <f>I3&gt;30</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="27">
+        <v>1.1666666269302399</v>
+      </c>
+      <c r="L3" s="27">
+        <v>1.57142853736877</v>
+      </c>
+      <c r="M3" s="29">
+        <f>K3/L3</f>
+        <v>0.74242423322903939</v>
+      </c>
+      <c r="N3" s="31" t="b">
+        <f>M3&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="27">
+        <v>354.17649999999998</v>
+      </c>
+      <c r="E4" s="27">
+        <v>367.81299999999999</v>
+      </c>
+      <c r="F4" s="27">
+        <v>13.6365</v>
+      </c>
+      <c r="G4" s="27">
+        <v>2.2857143878936799</v>
+      </c>
+      <c r="H4" s="27" t="b">
+        <f t="shared" ref="H4:H30" si="0">G4&gt;1</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="27">
+        <v>81.257751604877299</v>
+      </c>
+      <c r="J4" s="27" t="b">
+        <f t="shared" ref="J4:J30" si="1">I4&gt;30</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="27">
+        <v>1.7142857313156099</v>
+      </c>
+      <c r="L4" s="27">
+        <v>2.75</v>
+      </c>
+      <c r="M4" s="29">
+        <f t="shared" ref="M4:M30" si="2">K4/L4</f>
+        <v>0.62337662956931272</v>
+      </c>
+      <c r="N4" s="31" t="b">
+        <f t="shared" ref="N4:N30" si="3">M4&gt;1</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="27">
+        <v>553.6825</v>
+      </c>
+      <c r="E5" s="27">
+        <v>569.49919999999997</v>
+      </c>
+      <c r="F5" s="27">
+        <v>15.816700000000001</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1.4375</v>
+      </c>
+      <c r="H5" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="27">
+        <v>36.385402259884302</v>
+      </c>
+      <c r="J5" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="27">
+        <v>2.1111111640930198</v>
+      </c>
+      <c r="M5" s="29">
+        <f t="shared" si="2"/>
+        <v>0.2368420993192043</v>
+      </c>
+      <c r="N5" s="31" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="27">
+        <v>683.51400000000001</v>
+      </c>
+      <c r="E6" s="27">
+        <v>718.47339999999997</v>
+      </c>
+      <c r="F6" s="27">
+        <v>34.959400000000002</v>
+      </c>
+      <c r="G6" s="27">
+        <v>1.54285717010498</v>
+      </c>
+      <c r="H6" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="27">
+        <v>36.140053638799799</v>
+      </c>
+      <c r="J6" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="27">
+        <v>2.0588235855102499</v>
+      </c>
+      <c r="L6" s="27">
+        <v>1.0555555820465099</v>
+      </c>
+      <c r="M6" s="29">
+        <f t="shared" si="2"/>
+        <v>1.9504644004805556</v>
+      </c>
+      <c r="N6" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27">
+        <v>787.26679999999999</v>
+      </c>
+      <c r="E7" s="27">
+        <v>811.53210000000001</v>
+      </c>
+      <c r="F7" s="27">
+        <v>24.2653</v>
+      </c>
+      <c r="G7" s="27">
+        <v>2.1600000858306898</v>
+      </c>
+      <c r="H7" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7" s="27">
+        <v>138.19044097563199</v>
+      </c>
+      <c r="J7" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K7" s="27">
+        <v>1.1666666269302399</v>
+      </c>
+      <c r="L7" s="27">
+        <v>3.0769231319427499</v>
+      </c>
+      <c r="M7" s="29">
+        <f t="shared" si="2"/>
+        <v>0.37916664697229985</v>
+      </c>
+      <c r="N7" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15"/>
+    </row>
+    <row r="8" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27">
+        <v>852.94060000000002</v>
+      </c>
+      <c r="E8" s="27">
+        <v>868.43669999999997</v>
+      </c>
+      <c r="F8" s="27">
+        <v>15.4961</v>
+      </c>
+      <c r="G8" s="27">
+        <v>1.375</v>
+      </c>
+      <c r="H8" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="27">
+        <v>16.371729719692802</v>
+      </c>
+      <c r="J8" s="28" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="L8" s="27">
+        <v>2</v>
+      </c>
+      <c r="M8" s="29">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="N8" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="27">
+        <v>952.69320000000005</v>
+      </c>
+      <c r="E9" s="27">
+        <v>970.26390000000004</v>
+      </c>
+      <c r="F9" s="27">
+        <v>17.570699999999999</v>
+      </c>
+      <c r="G9" s="27">
+        <v>2.4444444179534899</v>
+      </c>
+      <c r="H9" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="27">
+        <v>33.917377014156102</v>
+      </c>
+      <c r="J9" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="27">
+        <v>3.4444444179534899</v>
+      </c>
+      <c r="L9" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="M9" s="29">
+        <f t="shared" si="2"/>
+        <v>2.2962962786356598</v>
+      </c>
+      <c r="N9" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
+        <v>8</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1052.4000000000001</v>
+      </c>
+      <c r="E10" s="27">
+        <v>1072.3</v>
+      </c>
+      <c r="F10" s="27">
+        <v>19.820599999999999</v>
+      </c>
+      <c r="G10" s="27">
+        <v>2.7999999523162802</v>
+      </c>
+      <c r="H10" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="27">
+        <v>36.495483964883697</v>
+      </c>
+      <c r="J10" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="27">
+        <v>4</v>
+      </c>
+      <c r="L10" s="27">
+        <v>1.63636362552643</v>
+      </c>
+      <c r="M10" s="29">
+        <f t="shared" si="2"/>
+        <v>2.444444460633358</v>
+      </c>
+      <c r="N10" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
+        <v>9</v>
+      </c>
+      <c r="B11" s="30">
+        <v>1152.1876999999999</v>
+      </c>
+      <c r="C11" s="30">
+        <v>1172.3296</v>
+      </c>
+      <c r="D11" s="27">
+        <v>1152.2</v>
+      </c>
+      <c r="E11" s="27">
+        <v>1172.2</v>
+      </c>
+      <c r="F11" s="27">
+        <v>19.999700000000001</v>
+      </c>
+      <c r="G11" s="27">
+        <v>2.9000000953674299</v>
+      </c>
+      <c r="H11" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="27">
+        <v>36.989903929986802</v>
+      </c>
+      <c r="J11" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="27">
+        <v>4.0999999046325701</v>
+      </c>
+      <c r="L11" s="27">
+        <v>1.90909087657928</v>
+      </c>
+      <c r="M11" s="29">
+        <f t="shared" si="2"/>
+        <v>2.1476190342384189</v>
+      </c>
+      <c r="N11" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
+        <v>10</v>
+      </c>
+      <c r="B12" s="30">
+        <v>1251.941</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1271.4050999999999</v>
+      </c>
+      <c r="D12" s="27">
+        <v>1252</v>
+      </c>
+      <c r="E12" s="27">
+        <v>1271.4000000000001</v>
+      </c>
+      <c r="F12" s="27">
+        <v>19.438099999999999</v>
+      </c>
+      <c r="G12" s="27">
+        <v>2.6842105388641402</v>
+      </c>
+      <c r="H12" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="27">
+        <v>41.401903388491199</v>
+      </c>
+      <c r="J12" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="27">
+        <v>3.8888888359069802</v>
+      </c>
+      <c r="L12" s="27">
+        <v>1.6000000238418599</v>
+      </c>
+      <c r="M12" s="29">
+        <f t="shared" si="2"/>
+        <v>2.4305554862237604</v>
+      </c>
+      <c r="N12" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
+        <v>11</v>
+      </c>
+      <c r="B13" s="30">
+        <v>1351.6958</v>
+      </c>
+      <c r="C13" s="30">
+        <v>1370.4816000000001</v>
+      </c>
+      <c r="D13" s="27">
+        <v>1351.7</v>
+      </c>
+      <c r="E13" s="27">
+        <v>1370.5</v>
+      </c>
+      <c r="F13" s="27">
+        <v>18.755700000000001</v>
+      </c>
+      <c r="G13" s="27">
+        <v>3</v>
+      </c>
+      <c r="H13" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="27">
+        <v>41.774413290816199</v>
+      </c>
+      <c r="J13" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="27">
+        <v>4</v>
+      </c>
+      <c r="L13" s="27">
+        <v>2.0999999046325701</v>
+      </c>
+      <c r="M13" s="29">
+        <f t="shared" si="2"/>
+        <v>1.904761991262979</v>
+      </c>
+      <c r="N13" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="15"/>
+    </row>
+    <row r="14" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26">
+        <v>12</v>
+      </c>
+      <c r="B14" s="30">
+        <v>1451.4506000000001</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1470.6713999999999</v>
+      </c>
+      <c r="D14" s="27">
+        <v>1451.5</v>
+      </c>
+      <c r="E14" s="27">
+        <v>1470.7</v>
+      </c>
+      <c r="F14" s="27">
+        <v>19.291699999999999</v>
+      </c>
+      <c r="G14" s="27">
+        <v>3.10526323318481</v>
+      </c>
+      <c r="H14" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="27">
+        <v>40.956359462038399</v>
+      </c>
+      <c r="J14" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="27">
+        <v>4.2222223281860396</v>
+      </c>
+      <c r="L14" s="27">
+        <v>2.0999999046325701</v>
+      </c>
+      <c r="M14" s="29">
+        <f t="shared" si="2"/>
+        <v>2.0105821523476628</v>
+      </c>
+      <c r="N14" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26">
+        <v>13</v>
+      </c>
+      <c r="B15" s="30">
+        <v>1551.2057</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1571.0468000000001</v>
+      </c>
+      <c r="D15" s="27">
+        <v>1551.2</v>
+      </c>
+      <c r="E15" s="27">
+        <v>1571.1</v>
+      </c>
+      <c r="F15" s="27">
+        <v>19.918500000000002</v>
+      </c>
+      <c r="G15" s="27">
+        <v>3</v>
+      </c>
+      <c r="H15" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="27">
+        <v>41.3311576111197</v>
+      </c>
+      <c r="J15" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="27">
+        <v>3.9000000953674299</v>
+      </c>
+      <c r="L15" s="27">
+        <v>2.0909090042114298</v>
+      </c>
+      <c r="M15" s="29">
+        <f t="shared" si="2"/>
+        <v>1.8652175142544209</v>
+      </c>
+      <c r="N15" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="15"/>
+    </row>
+    <row r="16" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26">
+        <v>14</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="27">
+        <v>1645.6</v>
+      </c>
+      <c r="E16" s="27">
+        <v>1665.2</v>
+      </c>
+      <c r="F16" s="27">
+        <v>19.617899999999999</v>
+      </c>
+      <c r="G16" s="27">
+        <v>2.7000000476837198</v>
+      </c>
+      <c r="H16" s="32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I16" s="27">
+        <v>32.9886750423208</v>
+      </c>
+      <c r="J16" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="L16" s="27">
+        <v>2</v>
+      </c>
+      <c r="M16" s="29">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="N16" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="15"/>
+    </row>
+    <row r="17" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26">
+        <v>15</v>
+      </c>
+      <c r="B17" s="30">
+        <v>1750.7105999999999</v>
+      </c>
+      <c r="C17" s="30">
+        <v>1772.8755000000001</v>
+      </c>
+      <c r="D17" s="27">
+        <v>1750.7</v>
+      </c>
+      <c r="E17" s="27">
+        <v>1772.7</v>
+      </c>
+      <c r="F17" s="27">
+        <v>22.026</v>
+      </c>
+      <c r="G17" s="27">
+        <v>3</v>
+      </c>
+      <c r="H17" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="27">
+        <v>40.921124497054798</v>
+      </c>
+      <c r="J17" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="27">
+        <v>4.1818180084228498</v>
+      </c>
+      <c r="L17" s="27">
+        <v>2</v>
+      </c>
+      <c r="M17" s="29">
+        <f t="shared" si="2"/>
+        <v>2.0909090042114249</v>
+      </c>
+      <c r="N17" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="15"/>
+    </row>
+    <row r="18" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26">
+        <v>16</v>
+      </c>
+      <c r="B18" s="30">
+        <v>1850.461</v>
+      </c>
+      <c r="C18" s="30">
+        <v>1871.7448999999999</v>
+      </c>
+      <c r="D18" s="27">
+        <v>1850.5</v>
+      </c>
+      <c r="E18" s="27">
+        <v>1871.7</v>
+      </c>
+      <c r="F18" s="27">
+        <v>21.264500000000002</v>
+      </c>
+      <c r="G18" s="27">
+        <v>3.04761910438538</v>
+      </c>
+      <c r="H18" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I18" s="27">
+        <v>38.377383640971999</v>
+      </c>
+      <c r="J18" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="27">
+        <v>4.3000001907348597</v>
+      </c>
+      <c r="L18" s="27">
+        <v>1.90909087657928</v>
+      </c>
+      <c r="M18" s="29">
+        <f t="shared" si="2"/>
+        <v>2.2523810906475155</v>
+      </c>
+      <c r="N18" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="15"/>
+    </row>
+    <row r="19" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26">
+        <v>17</v>
+      </c>
+      <c r="B19" s="30">
+        <v>1950.2139</v>
+      </c>
+      <c r="C19" s="30">
+        <v>1973.1379999999999</v>
+      </c>
+      <c r="D19" s="27">
+        <v>1950.2</v>
+      </c>
+      <c r="E19" s="27">
+        <v>1973.3</v>
+      </c>
+      <c r="F19" s="27">
+        <v>23.0975</v>
+      </c>
+      <c r="G19" s="27">
+        <v>3.0869565010070801</v>
+      </c>
+      <c r="H19" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I19" s="27">
+        <v>42.646868426053302</v>
+      </c>
+      <c r="J19" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="27">
+        <v>4.3636364936828604</v>
+      </c>
+      <c r="L19" s="27">
+        <v>1.9166666269302399</v>
+      </c>
+      <c r="M19" s="29">
+        <f t="shared" si="2"/>
+        <v>2.2766799569478193</v>
+      </c>
+      <c r="N19" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="15"/>
+    </row>
+    <row r="20" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26">
+        <v>18</v>
+      </c>
+      <c r="B20" s="30">
+        <v>2049.9657999999999</v>
+      </c>
+      <c r="C20" s="30">
+        <v>2073.1565000000001</v>
+      </c>
+      <c r="D20" s="27">
+        <v>2050</v>
+      </c>
+      <c r="E20" s="27">
+        <v>2073.3000000000002</v>
+      </c>
+      <c r="F20" s="27">
+        <v>23.358000000000001</v>
+      </c>
+      <c r="G20" s="27">
+        <v>2.95652174949646</v>
+      </c>
+      <c r="H20" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I20" s="27">
+        <v>42.235226229299997</v>
+      </c>
+      <c r="J20" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="27">
+        <v>4.5454545021057102</v>
+      </c>
+      <c r="L20" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="M20" s="29">
+        <f t="shared" si="2"/>
+        <v>3.0303030014038068</v>
+      </c>
+      <c r="N20" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="15"/>
+    </row>
+    <row r="21" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26">
+        <v>19</v>
+      </c>
+      <c r="B21" s="30">
+        <v>2149.7184999999999</v>
+      </c>
+      <c r="C21" s="30">
+        <v>2168.5331999999999</v>
+      </c>
+      <c r="D21" s="27">
+        <v>2149.6999999999998</v>
+      </c>
+      <c r="E21" s="27">
+        <v>2168.6</v>
+      </c>
+      <c r="F21" s="27">
+        <v>18.8277</v>
+      </c>
+      <c r="G21" s="27">
+        <v>3.4736843109130899</v>
+      </c>
+      <c r="H21" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I21" s="27">
+        <v>48.679424510015501</v>
+      </c>
+      <c r="J21" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="27">
+        <v>4.6666665077209499</v>
+      </c>
+      <c r="L21" s="27">
+        <v>2.4000000953674299</v>
+      </c>
+      <c r="M21" s="29">
+        <f t="shared" si="2"/>
+        <v>1.9444443009517893</v>
+      </c>
+      <c r="N21" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="15"/>
+    </row>
+    <row r="22" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26">
+        <v>20</v>
+      </c>
+      <c r="B22" s="30">
+        <v>2249.4731999999999</v>
+      </c>
+      <c r="C22" s="30">
+        <v>2270.8982000000001</v>
+      </c>
+      <c r="D22" s="27">
+        <v>2249.5</v>
+      </c>
+      <c r="E22" s="27">
+        <v>2270.8000000000002</v>
+      </c>
+      <c r="F22" s="27">
+        <v>21.296099999999999</v>
+      </c>
+      <c r="G22" s="27">
+        <v>3.0952382087707502</v>
+      </c>
+      <c r="H22" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I22" s="27">
+        <v>46.448069544763698</v>
+      </c>
+      <c r="J22" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="27">
+        <v>4.0999999046325701</v>
+      </c>
+      <c r="L22" s="27">
+        <v>2.1818182468414302</v>
+      </c>
+      <c r="M22" s="29">
+        <f t="shared" si="2"/>
+        <v>1.8791665669530673</v>
+      </c>
+      <c r="N22" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="15"/>
+    </row>
+    <row r="23" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26">
+        <v>21</v>
+      </c>
+      <c r="B23" s="30">
+        <v>2349.2257</v>
+      </c>
+      <c r="C23" s="30">
+        <v>2371.6396</v>
+      </c>
+      <c r="D23" s="27">
+        <v>2349.1999999999998</v>
+      </c>
+      <c r="E23" s="27">
+        <v>2371.6999999999998</v>
+      </c>
+      <c r="F23" s="27">
+        <v>22.485199999999999</v>
+      </c>
+      <c r="G23" s="27">
+        <v>3.2608695030212398</v>
+      </c>
+      <c r="H23" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I23" s="27">
+        <v>42.623085022720403</v>
+      </c>
+      <c r="J23" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="27">
+        <v>4.4545454978942898</v>
+      </c>
+      <c r="L23" s="27">
+        <v>2.1666667461395299</v>
+      </c>
+      <c r="M23" s="29">
+        <f t="shared" si="2"/>
+        <v>2.0559440005396308</v>
+      </c>
+      <c r="N23" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="15"/>
+    </row>
+    <row r="24" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26">
+        <v>22</v>
+      </c>
+      <c r="B24" s="30">
+        <v>2448.9770000000003</v>
+      </c>
+      <c r="C24" s="30">
+        <v>2471.6529999999998</v>
+      </c>
+      <c r="D24" s="27">
+        <v>2449</v>
+      </c>
+      <c r="E24" s="27">
+        <v>2471.6</v>
+      </c>
+      <c r="F24" s="27">
+        <v>22.598400000000002</v>
+      </c>
+      <c r="G24" s="27">
+        <v>3.04347825050354</v>
+      </c>
+      <c r="H24" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I24" s="27">
+        <v>42.075367157421503</v>
+      </c>
+      <c r="J24" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K24" s="27">
+        <v>4.0909090042114302</v>
+      </c>
+      <c r="L24" s="27">
+        <v>2.0833332538604701</v>
+      </c>
+      <c r="M24" s="29">
+        <f t="shared" si="2"/>
+        <v>1.9636363969282737</v>
+      </c>
+      <c r="N24" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="15"/>
+    </row>
+    <row r="25" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="26">
+        <v>23</v>
+      </c>
+      <c r="B25" s="30">
+        <v>2548.7290000000003</v>
+      </c>
+      <c r="C25" s="30">
+        <v>2570.9965999999999</v>
+      </c>
+      <c r="D25" s="27">
+        <v>2548.6999999999998</v>
+      </c>
+      <c r="E25" s="27">
+        <v>2570.8000000000002</v>
+      </c>
+      <c r="F25" s="27">
+        <v>22.104099999999999</v>
+      </c>
+      <c r="G25" s="27">
+        <v>3.0909090042114298</v>
+      </c>
+      <c r="H25" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="27">
+        <v>39.4872292291208</v>
+      </c>
+      <c r="J25" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K25" s="27">
+        <v>4.1818180084228498</v>
+      </c>
+      <c r="L25" s="27">
+        <v>2.0833332538604701</v>
+      </c>
+      <c r="M25" s="29">
+        <f t="shared" si="2"/>
+        <v>2.007272720614349</v>
+      </c>
+      <c r="N25" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="15"/>
+    </row>
+    <row r="26" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="30">
+        <v>2648.4821000000002</v>
+      </c>
+      <c r="C26" s="30">
+        <v>2669.7923999999998</v>
+      </c>
+      <c r="D26" s="27">
+        <v>2648.5</v>
+      </c>
+      <c r="E26" s="27">
+        <v>2669.8</v>
+      </c>
+      <c r="F26" s="27">
+        <v>21.2971</v>
+      </c>
+      <c r="G26" s="27">
+        <v>3.42857146263123</v>
+      </c>
+      <c r="H26" s="27" t="b">
+        <f>G26&gt;1</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="27">
+        <v>41.344973164102598</v>
+      </c>
+      <c r="J26" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="27">
+        <v>4.4000000953674299</v>
+      </c>
+      <c r="L26" s="27">
+        <v>2.5454545021057098</v>
+      </c>
+      <c r="M26" s="29">
+        <f t="shared" si="2"/>
+        <v>1.7285714954746039</v>
+      </c>
+      <c r="N26" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="15"/>
+    </row>
+    <row r="27" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26">
+        <v>25</v>
+      </c>
+      <c r="B27" s="30">
+        <v>2748.2372</v>
+      </c>
+      <c r="C27" s="30">
+        <v>2771.1977999999999</v>
+      </c>
+      <c r="D27" s="27">
+        <v>2748.2</v>
+      </c>
+      <c r="E27" s="27">
+        <v>2771</v>
+      </c>
+      <c r="F27" s="27">
+        <v>22.783200000000001</v>
+      </c>
+      <c r="G27" s="27">
+        <v>3.0869565010070801</v>
+      </c>
+      <c r="H27" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I27" s="27">
+        <v>38.386744534962503</v>
+      </c>
+      <c r="J27" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="27">
+        <v>4.4545454978942898</v>
+      </c>
+      <c r="L27" s="27">
+        <v>1.8333333730697601</v>
+      </c>
+      <c r="M27" s="29">
+        <f t="shared" si="2"/>
+        <v>2.4297520370970687</v>
+      </c>
+      <c r="N27" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="15"/>
+    </row>
+    <row r="28" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26">
+        <v>26</v>
+      </c>
+      <c r="B28" s="30">
+        <v>2847.9875000000002</v>
+      </c>
+      <c r="C28" s="30">
+        <v>2871.2986999999998</v>
+      </c>
+      <c r="D28" s="27">
+        <v>2848</v>
+      </c>
+      <c r="E28" s="27">
+        <v>2871.2</v>
+      </c>
+      <c r="F28" s="27">
+        <v>23.193999999999999</v>
+      </c>
+      <c r="G28" s="27">
+        <v>2.7826087474822998</v>
+      </c>
+      <c r="H28" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I28" s="27">
+        <v>34.091453025085698</v>
+      </c>
+      <c r="J28" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="27">
+        <v>4.1818180084228498</v>
+      </c>
+      <c r="L28" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="M28" s="29">
+        <f t="shared" si="2"/>
+        <v>2.7878786722819</v>
+      </c>
+      <c r="N28" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="15"/>
+    </row>
+    <row r="29" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26">
+        <v>27</v>
+      </c>
+      <c r="B29" s="30">
+        <v>2947.7380000000003</v>
+      </c>
+      <c r="C29" s="30">
+        <v>2968.2674999999999</v>
+      </c>
+      <c r="D29" s="27">
+        <v>2947.7</v>
+      </c>
+      <c r="E29" s="27">
+        <v>2968.4</v>
+      </c>
+      <c r="F29" s="27">
+        <v>20.605899999999998</v>
+      </c>
+      <c r="G29" s="27">
+        <v>3.1904761791229301</v>
+      </c>
+      <c r="H29" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="27">
+        <v>40.5116714721863</v>
+      </c>
+      <c r="J29" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K29" s="27">
+        <v>4.3000001907348597</v>
+      </c>
+      <c r="L29" s="27">
+        <v>2.1818182468414302</v>
+      </c>
+      <c r="M29" s="29">
+        <f t="shared" si="2"/>
+        <v>1.9708333620180665</v>
+      </c>
+      <c r="N29" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="15"/>
+    </row>
+    <row r="30" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26">
+        <v>28</v>
+      </c>
+      <c r="B30" s="30">
+        <v>3047.4924000000001</v>
+      </c>
+      <c r="C30" s="30">
+        <v>3071.2793999999999</v>
+      </c>
+      <c r="D30" s="27">
+        <v>3047.5</v>
+      </c>
+      <c r="E30" s="27">
+        <v>3071.3</v>
+      </c>
+      <c r="F30" s="27">
+        <v>23.764800000000001</v>
+      </c>
+      <c r="G30" s="27">
+        <v>2.9583332538604701</v>
+      </c>
+      <c r="H30" s="27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="27">
+        <v>34.601790143221599</v>
+      </c>
+      <c r="J30" s="27" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="27">
+        <v>4.25</v>
+      </c>
+      <c r="L30" s="27">
+        <v>1.8461538553237899</v>
+      </c>
+      <c r="M30" s="29">
+        <f t="shared" si="2"/>
+        <v>2.3020833218987637</v>
+      </c>
+      <c r="N30" s="33" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E064C-00F5-43C9-868E-76E23D23ADF7}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -774,7 +2292,7 @@
     <col min="9" max="9" width="17.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.85546875" style="15"/>
     <col min="12" max="13" width="10.85546875" style="10"/>
-    <col min="14" max="15" width="10.85546875" style="1"/>
+    <col min="14" max="14" width="10.85546875" style="1"/>
     <col min="18" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -793,7 +2311,6 @@
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
       <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -831,7 +2348,6 @@
         <v>7</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -861,7 +2377,7 @@
       <c r="J3" s="15">
         <v>2.8213379074897902</v>
       </c>
-      <c r="K3" s="23" t="b">
+      <c r="K3" s="22" t="b">
         <f>J3&gt;30</f>
         <v>0</v>
       </c>
@@ -875,7 +2391,7 @@
         <f>L3/M3</f>
         <v>1.4062499895226199</v>
       </c>
-      <c r="O3" s="22" t="b">
+      <c r="O3" t="b">
         <f>N3&gt;1</f>
         <v>1</v>
       </c>
@@ -905,10 +2421,10 @@
       <c r="I4" s="15">
         <v>1381.5409389574099</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="22">
         <v>24.237560332586199</v>
       </c>
-      <c r="K4" s="23" t="b">
+      <c r="K4" s="22" t="b">
         <f t="shared" ref="K4:K33" si="1">J4&gt;30</f>
         <v>0</v>
       </c>
@@ -922,7 +2438,7 @@
         <f t="shared" ref="N4:N33" si="2">L4/M4</f>
         <v>1.0357142524732335</v>
       </c>
-      <c r="O4" s="22" t="b">
+      <c r="O4" t="b">
         <f t="shared" ref="O4:O33" si="3">N4&gt;1</f>
         <v>1</v>
       </c>
@@ -955,7 +2471,7 @@
       <c r="J5" s="15">
         <v>19.5105230995242</v>
       </c>
-      <c r="K5" s="23" t="b">
+      <c r="K5" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -969,7 +2485,7 @@
         <f t="shared" si="2"/>
         <v>0.95486115314997866</v>
       </c>
-      <c r="O5" s="12" t="b">
+      <c r="O5" s="31" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1006,7 +2522,7 @@
       <c r="J6" s="15">
         <v>44.329045745250902</v>
       </c>
-      <c r="K6" s="24" t="b">
+      <c r="K6" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1020,7 +2536,7 @@
         <f t="shared" si="2"/>
         <v>1.1550000215917844</v>
       </c>
-      <c r="O6" s="12" t="b">
+      <c r="O6" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1057,7 +2573,7 @@
       <c r="J7" s="15">
         <v>49.323375908027103</v>
       </c>
-      <c r="K7" s="24" t="b">
+      <c r="K7" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1071,7 +2587,7 @@
         <f t="shared" si="2"/>
         <v>1.32142853736877</v>
       </c>
-      <c r="O7" s="12" t="b">
+      <c r="O7" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1099,10 +2615,10 @@
       <c r="I8" s="15">
         <v>713.77490443851195</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>27.452880939942801</v>
       </c>
-      <c r="K8" s="23" t="b">
+      <c r="K8" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1116,7 +2632,7 @@
         <f t="shared" si="2"/>
         <v>1.0769231065490548</v>
       </c>
-      <c r="O8" s="22" t="b">
+      <c r="O8" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1153,7 +2669,7 @@
       <c r="J9" s="15">
         <v>76.201157865482699</v>
       </c>
-      <c r="K9" s="24" t="b">
+      <c r="K9" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1167,7 +2683,7 @@
         <f t="shared" si="2"/>
         <v>0.7120743018858755</v>
       </c>
-      <c r="O9" s="22" t="b">
+      <c r="O9" s="31" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1204,7 +2720,7 @@
       <c r="J10" s="15">
         <v>60.031294505535001</v>
       </c>
-      <c r="K10" s="24" t="b">
+      <c r="K10" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1218,7 +2734,7 @@
         <f t="shared" si="2"/>
         <v>1.3999999761581401</v>
       </c>
-      <c r="O10" s="12" t="b">
+      <c r="O10" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1246,10 +2762,10 @@
       <c r="I11" s="15">
         <v>158.85055497764299</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="22">
         <v>10.5900369985095</v>
       </c>
-      <c r="K11" s="23" t="b">
+      <c r="K11" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1263,7 +2779,7 @@
         <f t="shared" si="2"/>
         <v>1.142857154210408</v>
       </c>
-      <c r="O11" s="22" t="b">
+      <c r="O11" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1300,7 +2816,7 @@
       <c r="J12" s="15">
         <v>62.150102174778297</v>
       </c>
-      <c r="K12" s="24" t="b">
+      <c r="K12" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1314,7 +2830,7 @@
         <f t="shared" si="2"/>
         <v>1.9388083186727494</v>
       </c>
-      <c r="O12" s="12" t="b">
+      <c r="O12" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1342,10 +2858,10 @@
       <c r="I13" s="15">
         <v>141.07713596521401</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="22">
         <v>11.756427997101101</v>
       </c>
-      <c r="K13" s="23" t="b">
+      <c r="K13" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1359,7 +2875,7 @@
         <f t="shared" si="2"/>
         <v>0.83333331346511796</v>
       </c>
-      <c r="O13" s="12" t="b">
+      <c r="O13" s="31" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1396,7 +2912,7 @@
       <c r="J14" s="15">
         <v>37.846625826813202</v>
       </c>
-      <c r="K14" s="24" t="b">
+      <c r="K14" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1410,7 +2926,7 @@
         <f t="shared" si="2"/>
         <v>1.3194443469246206</v>
       </c>
-      <c r="O14" s="12" t="b">
+      <c r="O14" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1447,7 +2963,7 @@
       <c r="J15" s="15">
         <v>65.601636150085398</v>
       </c>
-      <c r="K15" s="24" t="b">
+      <c r="K15" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1461,7 +2977,7 @@
         <f t="shared" si="2"/>
         <v>0.914062493189706</v>
       </c>
-      <c r="O15" s="22" t="b">
+      <c r="O15" s="31" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1489,10 +3005,10 @@
       <c r="I16" s="15">
         <v>308.14511850252899</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="22">
         <v>12.839379937605401</v>
       </c>
-      <c r="K16" s="23" t="b">
+      <c r="K16" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1506,7 +3022,7 @@
         <f t="shared" si="2"/>
         <v>1.1916666711866863</v>
       </c>
-      <c r="O16" s="22" t="b">
+      <c r="O16" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1543,7 +3059,7 @@
       <c r="J17" s="15">
         <v>60.4637688303565</v>
       </c>
-      <c r="K17" s="24" t="b">
+      <c r="K17" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1557,7 +3073,7 @@
         <f t="shared" si="2"/>
         <v>0.98580116285780439</v>
       </c>
-      <c r="O17" s="22" t="b">
+      <c r="O17" s="31" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1585,10 +3101,10 @@
       <c r="I18" s="15">
         <v>115.205183420732</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="22">
         <v>4.2668586452123103</v>
       </c>
-      <c r="K18" s="23" t="b">
+      <c r="K18" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1602,7 +3118,7 @@
         <f t="shared" si="2"/>
         <v>1.61538464213029</v>
       </c>
-      <c r="O18" s="22" t="b">
+      <c r="O18" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1639,7 +3155,7 @@
       <c r="J19" s="15">
         <v>53.263906897677501</v>
       </c>
-      <c r="K19" s="24" t="b">
+      <c r="K19" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1653,7 +3169,7 @@
         <f t="shared" si="2"/>
         <v>1.2861842185960561</v>
       </c>
-      <c r="O19" s="12" t="b">
+      <c r="O19" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1690,7 +3206,7 @@
       <c r="J20" s="15">
         <v>60.683833983798799</v>
       </c>
-      <c r="K20" s="24" t="b">
+      <c r="K20" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1704,7 +3220,7 @@
         <f t="shared" si="2"/>
         <v>0.85763890615284888</v>
       </c>
-      <c r="O20" s="22" t="b">
+      <c r="O20" s="31" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1741,7 +3257,7 @@
       <c r="J21" s="15">
         <v>58.791330825365499</v>
       </c>
-      <c r="K21" s="24" t="b">
+      <c r="K21" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1755,7 +3271,7 @@
         <f t="shared" si="2"/>
         <v>1.4701703960044212</v>
       </c>
-      <c r="O21" s="12" t="b">
+      <c r="O21" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1783,10 +3299,10 @@
       <c r="I22" s="15">
         <v>102.408511847119</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="22">
         <v>6.4005319904449403</v>
       </c>
-      <c r="K22" s="23" t="b">
+      <c r="K22" s="22" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1800,7 +3316,7 @@
         <f t="shared" si="2"/>
         <v>0.56249999580904864</v>
       </c>
-      <c r="O22" s="12" t="b">
+      <c r="O22" s="31" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1837,7 +3353,7 @@
       <c r="J23" s="15">
         <v>56.386155980866299</v>
       </c>
-      <c r="K23" s="24" t="b">
+      <c r="K23" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1851,7 +3367,7 @@
         <f t="shared" si="2"/>
         <v>2.4615385532379199</v>
       </c>
-      <c r="O23" s="12" t="b">
+      <c r="O23" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1888,7 +3404,7 @@
       <c r="J24" s="15">
         <v>60.6935480557419</v>
       </c>
-      <c r="K24" s="24" t="b">
+      <c r="K24" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1902,7 +3418,7 @@
         <f t="shared" si="2"/>
         <v>1.5093749405932577</v>
       </c>
-      <c r="O24" s="12" t="b">
+      <c r="O24" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -1939,7 +3455,7 @@
       <c r="J25" s="15">
         <v>60.855834604978298</v>
       </c>
-      <c r="K25" s="24" t="b">
+      <c r="K25" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1953,7 +3469,7 @@
         <f t="shared" si="2"/>
         <v>0.90312496231869188</v>
       </c>
-      <c r="O25" s="22" t="b">
+      <c r="O25" s="31" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1990,7 +3506,7 @@
       <c r="J26" s="15">
         <v>53.6365838191576</v>
       </c>
-      <c r="K26" s="24" t="b">
+      <c r="K26" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2004,7 +3520,7 @@
         <f t="shared" si="2"/>
         <v>1.7578125392901727</v>
       </c>
-      <c r="O26" s="12" t="b">
+      <c r="O26" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2041,7 +3557,7 @@
       <c r="J27" s="15">
         <v>49.511842756088598</v>
       </c>
-      <c r="K27" s="24" t="b">
+      <c r="K27" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2055,7 +3571,7 @@
         <f t="shared" si="2"/>
         <v>1.9797978551518349</v>
       </c>
-      <c r="O27" s="12" t="b">
+      <c r="O27" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2092,7 +3608,7 @@
       <c r="J28" s="15">
         <v>41.6997377788961</v>
       </c>
-      <c r="K28" s="24" t="b">
+      <c r="K28" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2106,7 +3622,7 @@
         <f t="shared" si="2"/>
         <v>3.5600488405413064</v>
       </c>
-      <c r="O28" s="12" t="b">
+      <c r="O28" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2143,7 +3659,7 @@
       <c r="J29" s="15">
         <v>45.202281719630797</v>
       </c>
-      <c r="K29" s="24" t="b">
+      <c r="K29" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2157,7 +3673,7 @@
         <f t="shared" si="2"/>
         <v>2.0740742256137299</v>
       </c>
-      <c r="O29" s="12" t="b">
+      <c r="O29" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2194,7 +3710,7 @@
       <c r="J30" s="15">
         <v>39.807065089356797</v>
       </c>
-      <c r="K30" s="24" t="b">
+      <c r="K30" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2208,7 +3724,7 @@
         <f t="shared" si="2"/>
         <v>3.6857141349996865</v>
       </c>
-      <c r="O30" s="12" t="b">
+      <c r="O30" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2245,7 +3761,7 @@
       <c r="J31" s="15">
         <v>39.949004053135198</v>
       </c>
-      <c r="K31" s="24" t="b">
+      <c r="K31" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2259,7 +3775,7 @@
         <f t="shared" si="2"/>
         <v>2.0769229613817695</v>
       </c>
-      <c r="O31" s="12" t="b">
+      <c r="O31" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2296,7 +3812,7 @@
       <c r="J32" s="15">
         <v>38.770352699887702</v>
       </c>
-      <c r="K32" s="24" t="b">
+      <c r="K32" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2310,7 +3826,7 @@
         <f t="shared" si="2"/>
         <v>2.1461537768290615</v>
       </c>
-      <c r="O32" s="12" t="b">
+      <c r="O32" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2347,7 +3863,7 @@
       <c r="J33" s="15">
         <v>34.8694341613989</v>
       </c>
-      <c r="K33" s="24" t="b">
+      <c r="K33" s="23" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2361,7 +3877,7 @@
         <f t="shared" si="2"/>
         <v>1.9772728058424929</v>
       </c>
-      <c r="O33" s="12" t="b">
+      <c r="O33" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -2373,12 +3889,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035C1B87-A08B-490A-8E5B-672E77AB3C60}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="A1:K25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>

--- a/Algo 4.0 output Report- VGAT-ChR2.xlsx
+++ b/Algo 4.0 output Report- VGAT-ChR2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{55F5BECB-D078-40C3-8520-AD210993FE01}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EBCE902B-A518-4A9B-B6D6-E91FE597F6E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{BE34E787-DC67-4BEA-B0F3-555C2A64AEA6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="8" xr2:uid="{BE34E787-DC67-4BEA-B0F3-555C2A64AEA6}"/>
   </bookViews>
   <sheets>
     <sheet name="16201017 (3)" sheetId="10" r:id="rId1"/>
@@ -744,7 +744,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="36">
   <si>
     <t>Humans</t>
   </si>
@@ -843,6 +843,15 @@
   </si>
   <si>
     <t>Sigma</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>sigma</t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D997D1-AA3E-4524-A98B-14968D409F58}">
   <dimension ref="A1:V277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:K39"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1606,21 +1615,21 @@
         <v>166.2546999999995</v>
       </c>
       <c r="G2" s="62" t="b">
-        <f>F2&gt;47.81</f>
+        <f t="shared" ref="G2:G33" si="0">F2&gt;47.81</f>
         <v>1</v>
       </c>
       <c r="H2" s="60">
         <v>2.0727272033691406</v>
       </c>
       <c r="I2" s="62" t="b">
-        <f>H2&gt;1</f>
+        <f t="shared" ref="I2:I33" si="1">H2&gt;1</f>
         <v>1</v>
       </c>
       <c r="J2" s="60">
         <v>18.190490597058112</v>
       </c>
       <c r="K2" s="62" t="b">
-        <f>J2&gt;3.8</f>
+        <f t="shared" ref="K2:K33" si="2">J2&gt;3.8</f>
         <v>1</v>
       </c>
       <c r="L2" s="54"/>
@@ -1635,6 +1644,9 @@
         <f>STDEV(F:F)</f>
         <v>47.812239475363221</v>
       </c>
+      <c r="U2" s="57" t="s">
+        <v>32</v>
+      </c>
       <c r="V2" s="57">
         <f>STDEV(J:J)</f>
         <v>5.9482718021424281</v>
@@ -1660,21 +1672,21 @@
         <v>186.03150000000005</v>
       </c>
       <c r="G3" s="40" t="b">
-        <f>F3&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H3" s="27">
         <v>2.0054054260253906</v>
       </c>
       <c r="I3" s="40" t="b">
-        <f>H3&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J3" s="27">
         <v>16.337187215589086</v>
       </c>
       <c r="K3" s="40" t="b">
-        <f>J3&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L3" s="1"/>
@@ -1703,21 +1715,21 @@
         <v>175.625</v>
       </c>
       <c r="G4" s="40" t="b">
-        <f>F4&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H4" s="27">
         <v>2.2857143878936768</v>
       </c>
       <c r="I4" s="40" t="b">
-        <f>H4&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J4" s="27">
         <v>17.298746132076495</v>
       </c>
       <c r="K4" s="40" t="b">
-        <f>J4&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L4" s="1"/>
@@ -1746,21 +1758,21 @@
         <v>175.42550000000028</v>
       </c>
       <c r="G5" s="40" t="b">
-        <f>F5&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H5" s="27">
         <v>2.0862069129943848</v>
       </c>
       <c r="I5" s="40" t="b">
-        <f>H5&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J5" s="27">
         <v>16.289923362680469</v>
       </c>
       <c r="K5" s="40" t="b">
-        <f>J5&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L5" s="1"/>
@@ -1789,21 +1801,21 @@
         <v>183.8768</v>
       </c>
       <c r="G6" s="40" t="b">
-        <f>F6&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H6" s="27">
         <v>2.0710382461547852</v>
       </c>
       <c r="I6" s="40" t="b">
-        <f>H6&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J6" s="27">
         <v>17.021432193855311</v>
       </c>
       <c r="K6" s="40" t="b">
-        <f>J6&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L6" s="1"/>
@@ -1832,21 +1844,21 @@
         <v>176.79420000000027</v>
       </c>
       <c r="G7" s="40" t="b">
-        <f>F7&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H7" s="27">
         <v>2.2215909957885742</v>
       </c>
       <c r="I7" s="40" t="b">
-        <f>H7&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J7" s="27">
         <v>17.411737779987341</v>
       </c>
       <c r="K7" s="40" t="b">
-        <f>J7&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L7" s="1"/>
@@ -1875,21 +1887,21 @@
         <v>180.1256999999996</v>
       </c>
       <c r="G8" s="40" t="b">
-        <f>F8&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H8" s="27">
         <v>2.223463773727417</v>
       </c>
       <c r="I8" s="40" t="b">
-        <f>H8&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J8" s="27">
         <v>17.319500152627356</v>
       </c>
       <c r="K8" s="40" t="b">
-        <f>J8&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L8" s="1"/>
@@ -1924,21 +1936,21 @@
         <v>180.70260000000053</v>
       </c>
       <c r="G9" s="40" t="b">
-        <f>F9&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H9" s="27">
         <v>2.2388889789581299</v>
       </c>
       <c r="I9" s="40" t="b">
-        <f>H9&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J9" s="27">
         <v>18.868451893506641</v>
       </c>
       <c r="K9" s="40" t="b">
-        <f>J9&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L9" s="1"/>
@@ -1973,21 +1985,21 @@
         <v>179.5025999999998</v>
       </c>
       <c r="G10" s="40" t="b">
-        <f>F10&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H10" s="27">
         <v>2.4189944267272949</v>
       </c>
       <c r="I10" s="40" t="b">
-        <f>H10&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J10" s="27">
         <v>20.265329091356648</v>
       </c>
       <c r="K10" s="40" t="b">
-        <f>J10&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L10" s="1"/>
@@ -2022,21 +2034,21 @@
         <v>194.00090000000091</v>
       </c>
       <c r="G11" s="62" t="b">
-        <f>F11&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H11" s="60">
         <v>2.3567838668823242</v>
       </c>
       <c r="I11" s="62" t="b">
-        <f>H11&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J11" s="60">
         <v>20.193059941037095</v>
       </c>
       <c r="K11" s="62" t="b">
-        <f>J11&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L11" s="54"/>
@@ -2067,21 +2079,21 @@
         <v>26.234400000000001</v>
       </c>
       <c r="G12" s="63" t="b">
-        <f>F12&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="61">
         <v>1.8461538553237915</v>
       </c>
       <c r="I12" s="61" t="b">
-        <f>H12&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J12" s="61">
         <v>23.38927941593299</v>
       </c>
       <c r="K12" s="61" t="b">
-        <f>J12&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L12" s="1"/>
@@ -2112,21 +2124,21 @@
         <v>25.558300000000145</v>
       </c>
       <c r="G13" s="63" t="b">
-        <f>F13&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="61">
         <v>1.4800000190734863</v>
       </c>
       <c r="I13" s="61" t="b">
-        <f>H13&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J13" s="61">
         <v>11.880529616879235</v>
       </c>
       <c r="K13" s="61" t="b">
-        <f>J13&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L13" s="1"/>
@@ -2155,21 +2167,21 @@
         <v>27.443300000000818</v>
       </c>
       <c r="G14" s="28" t="b">
-        <f>F14&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="27">
         <v>0.73076921701431274</v>
       </c>
       <c r="I14" s="27" t="b">
-        <f>H14&gt;1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="27">
         <v>31.401669161351176</v>
       </c>
       <c r="K14" s="27" t="b">
-        <f>J14&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L14" s="1"/>
@@ -2198,21 +2210,21 @@
         <v>16.650200000000041</v>
       </c>
       <c r="G15" s="28" t="b">
-        <f>F15&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="27">
         <v>1.0625</v>
       </c>
       <c r="I15" s="27" t="b">
-        <f>H15&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J15" s="27">
         <v>1.713030307683733</v>
       </c>
       <c r="K15" s="27" t="b">
-        <f>J15&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="1"/>
@@ -2241,21 +2253,21 @@
         <v>20.982499999999845</v>
       </c>
       <c r="G16" s="28" t="b">
-        <f>F16&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="27">
         <v>1.2380952835083008</v>
       </c>
       <c r="I16" s="27" t="b">
-        <f>H16&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J16" s="27">
         <v>1.8273552330827723</v>
       </c>
       <c r="K16" s="27" t="b">
-        <f>J16&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="1"/>
@@ -2284,21 +2296,21 @@
         <v>12.878500000000031</v>
       </c>
       <c r="G17" s="28" t="b">
-        <f>F17&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="27">
         <v>1.8333333730697632</v>
       </c>
       <c r="I17" s="27" t="b">
-        <f>H17&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J17" s="27">
         <v>2.8223628191553378</v>
       </c>
       <c r="K17" s="27" t="b">
-        <f>J17&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="1"/>
@@ -2327,21 +2339,21 @@
         <v>21.897799999999961</v>
       </c>
       <c r="G18" s="28" t="b">
-        <f>F18&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="27">
         <v>1.3999999761581421</v>
       </c>
       <c r="I18" s="27" t="b">
-        <f>H18&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J18" s="27">
         <v>1.5153006296046416</v>
       </c>
       <c r="K18" s="27" t="b">
-        <f>J18&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18" s="1"/>
@@ -2370,21 +2382,21 @@
         <v>18.53690000000006</v>
       </c>
       <c r="G19" s="28" t="b">
-        <f>F19&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="27">
         <v>1.4444444179534912</v>
       </c>
       <c r="I19" s="27" t="b">
-        <f>H19&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J19" s="27">
         <v>2.374455150002623</v>
       </c>
       <c r="K19" s="27" t="b">
-        <f>J19&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19" s="1"/>
@@ -2413,21 +2425,21 @@
         <v>16.396499999999833</v>
       </c>
       <c r="G20" s="28" t="b">
-        <f>F20&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="27">
         <v>1.3333333730697632</v>
       </c>
       <c r="I20" s="27" t="b">
-        <f>H20&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J20" s="27">
         <v>1.8261051662493357</v>
       </c>
       <c r="K20" s="27" t="b">
-        <f>J20&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20" s="1"/>
@@ -2456,21 +2468,21 @@
         <v>16.726400000000012</v>
       </c>
       <c r="G21" s="28" t="b">
-        <f>F21&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="27">
         <v>1.1875</v>
       </c>
       <c r="I21" s="27" t="b">
-        <f>H21&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J21" s="27">
         <v>1.6448036037633504</v>
       </c>
       <c r="K21" s="27" t="b">
-        <f>J21&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21" s="1"/>
@@ -2499,21 +2511,21 @@
         <v>34.786999999999807</v>
       </c>
       <c r="G22" s="28" t="b">
-        <f>F22&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="27">
         <v>1.0588235855102539</v>
       </c>
       <c r="I22" s="27" t="b">
-        <f>H22&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J22" s="27">
         <v>1.796983037951319</v>
       </c>
       <c r="K22" s="27" t="b">
-        <f>J22&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22" s="1"/>
@@ -2542,21 +2554,21 @@
         <v>11.71369999999979</v>
       </c>
       <c r="G23" s="28" t="b">
-        <f>F23&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="27">
         <v>1.4545454978942871</v>
       </c>
       <c r="I23" s="27" t="b">
-        <f>H23&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J23" s="27">
         <v>1.635323938252089</v>
       </c>
       <c r="K23" s="27" t="b">
-        <f>J23&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L23" s="1"/>
@@ -2585,21 +2597,21 @@
         <v>21.75630000000001</v>
       </c>
       <c r="G24" s="28" t="b">
-        <f>F24&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="27">
         <v>1.4285714626312256</v>
       </c>
       <c r="I24" s="27" t="b">
-        <f>H24&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J24" s="27">
         <v>3.0311845657603365</v>
       </c>
       <c r="K24" s="27" t="b">
-        <f>J24&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24" s="1"/>
@@ -2628,21 +2640,21 @@
         <v>21.8445999999999</v>
       </c>
       <c r="G25" s="28" t="b">
-        <f>F25&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="27">
         <v>1.047619104385376</v>
       </c>
       <c r="I25" s="27" t="b">
-        <f>H25&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J25" s="27">
         <v>2.0930367591829571</v>
       </c>
       <c r="K25" s="27" t="b">
-        <f>J25&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25" s="1"/>
@@ -2671,21 +2683,21 @@
         <v>16.486599999999726</v>
       </c>
       <c r="G26" s="28" t="b">
-        <f>F26&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="27">
         <v>1.4375</v>
       </c>
       <c r="I26" s="27" t="b">
-        <f>H26&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J26" s="27">
         <v>2.9647849655876208</v>
       </c>
       <c r="K26" s="27" t="b">
-        <f>J26&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26" s="1"/>
@@ -2714,21 +2726,21 @@
         <v>14.809300000000349</v>
       </c>
       <c r="G27" s="28" t="b">
-        <f>F27&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="27">
         <v>1.4285714626312256</v>
       </c>
       <c r="I27" s="27" t="b">
-        <f>H27&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J27" s="27">
         <v>2.5908479522671284</v>
       </c>
       <c r="K27" s="27" t="b">
-        <f>J27&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="1"/>
@@ -2757,21 +2769,21 @@
         <v>14.947200000000066</v>
       </c>
       <c r="G28" s="28" t="b">
-        <f>F28&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="27">
         <v>1.2142857313156128</v>
       </c>
       <c r="I28" s="27" t="b">
-        <f>H28&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J28" s="27">
         <v>1.7468331177105658</v>
       </c>
       <c r="K28" s="27" t="b">
-        <f>J28&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28" s="1"/>
@@ -2800,21 +2812,21 @@
         <v>20.432999999999993</v>
       </c>
       <c r="G29" s="28" t="b">
-        <f>F29&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="27">
         <v>1.25</v>
       </c>
       <c r="I29" s="27" t="b">
-        <f>H29&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J29" s="27">
         <v>3.1707921009936166</v>
       </c>
       <c r="K29" s="27" t="b">
-        <f>J29&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29" s="1"/>
@@ -2843,21 +2855,21 @@
         <v>31.561099999999897</v>
       </c>
       <c r="G30" s="28" t="b">
-        <f>F30&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="27">
         <v>1.2258064746856689</v>
       </c>
       <c r="I30" s="27" t="b">
-        <f>H30&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J30" s="27">
         <v>2.7096446590747143</v>
       </c>
       <c r="K30" s="27" t="b">
-        <f>J30&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30" s="1"/>
@@ -2886,21 +2898,21 @@
         <v>20.377800000000207</v>
       </c>
       <c r="G31" s="28" t="b">
-        <f>F31&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="27">
         <v>1.1499999761581421</v>
       </c>
       <c r="I31" s="27" t="b">
-        <f>H31&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J31" s="27">
         <v>2.6994674583029643</v>
       </c>
       <c r="K31" s="27" t="b">
-        <f>J31&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L31" s="1"/>
@@ -2929,21 +2941,21 @@
         <v>21.248000000000047</v>
       </c>
       <c r="G32" s="28" t="b">
-        <f>F32&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="27">
         <v>1.5499999523162842</v>
       </c>
       <c r="I32" s="27" t="b">
-        <f>H32&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J32" s="27">
         <v>2.8548056421761787</v>
       </c>
       <c r="K32" s="27" t="b">
-        <f>J32&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L32" s="1"/>
@@ -2972,21 +2984,21 @@
         <v>20.884900000000016</v>
       </c>
       <c r="G33" s="28" t="b">
-        <f>F33&gt;47.81</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" s="27">
         <v>1.1499999761581421</v>
       </c>
       <c r="I33" s="27" t="b">
-        <f>H33&gt;1</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J33" s="27">
         <v>1.7568333010201755</v>
       </c>
       <c r="K33" s="27" t="b">
-        <f>J33&gt;3.8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33" s="1"/>
@@ -3015,21 +3027,21 @@
         <v>17.459599999999682</v>
       </c>
       <c r="G34" s="28" t="b">
-        <f>F34&gt;47.81</f>
+        <f t="shared" ref="G34:G65" si="3">F34&gt;47.81</f>
         <v>0</v>
       </c>
       <c r="H34" s="27">
         <v>1.25</v>
       </c>
       <c r="I34" s="27" t="b">
-        <f>H34&gt;1</f>
+        <f t="shared" ref="I34:I65" si="4">H34&gt;1</f>
         <v>1</v>
       </c>
       <c r="J34" s="27">
         <v>2.6523623554743718</v>
       </c>
       <c r="K34" s="27" t="b">
-        <f>J34&gt;3.8</f>
+        <f t="shared" ref="K34:K65" si="5">J34&gt;3.8</f>
         <v>0</v>
       </c>
       <c r="L34" s="1"/>
@@ -3058,21 +3070,21 @@
         <v>18.446799999999712</v>
       </c>
       <c r="G35" s="28" t="b">
-        <f>F35&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H35" s="27">
         <v>1.6111111640930176</v>
       </c>
       <c r="I35" s="27" t="b">
-        <f>H35&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J35" s="27">
         <v>3.1037116741229278</v>
       </c>
       <c r="K35" s="27" t="b">
-        <f>J35&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L35" s="1"/>
@@ -3101,21 +3113,21 @@
         <v>16.333999999999833</v>
       </c>
       <c r="G36" s="28" t="b">
-        <f>F36&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H36" s="27">
         <v>1.1333333253860474</v>
       </c>
       <c r="I36" s="27" t="b">
-        <f>H36&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J36" s="27">
         <v>2.4672224879737943</v>
       </c>
       <c r="K36" s="27" t="b">
-        <f>J36&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L36" s="1"/>
@@ -3144,21 +3156,21 @@
         <v>18.31269999999995</v>
       </c>
       <c r="G37" s="28" t="b">
-        <f>F37&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H37" s="27">
         <v>1.1764706373214722</v>
       </c>
       <c r="I37" s="27" t="b">
-        <f>H37&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J37" s="27">
         <v>1.9282598290496362</v>
       </c>
       <c r="K37" s="27" t="b">
-        <f>J37&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L37" s="1"/>
@@ -3187,21 +3199,21 @@
         <v>21.866100000000188</v>
       </c>
       <c r="G38" s="28" t="b">
-        <f>F38&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H38" s="27">
         <v>1.1428571939468384</v>
       </c>
       <c r="I38" s="27" t="b">
-        <f>H38&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J38" s="27">
         <v>2.15202134222121</v>
       </c>
       <c r="K38" s="27" t="b">
-        <f>J38&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L38" s="1"/>
@@ -3230,21 +3242,21 @@
         <v>19.232200000000375</v>
       </c>
       <c r="G39" s="28" t="b">
-        <f>F39&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H39" s="27">
         <v>1.1666666269302368</v>
       </c>
       <c r="I39" s="27" t="b">
-        <f>H39&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J39" s="27">
         <v>1.8861061956831557</v>
       </c>
       <c r="K39" s="27" t="b">
-        <f>J39&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L39" s="1"/>
@@ -3273,21 +3285,21 @@
         <v>19.550000000000182</v>
       </c>
       <c r="G40" s="28" t="b">
-        <f>F40&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H40" s="27">
         <v>1.2105263471603394</v>
       </c>
       <c r="I40" s="27" t="b">
-        <f>H40&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J40" s="27">
         <v>2.3169553145183048</v>
       </c>
       <c r="K40" s="27" t="b">
-        <f>J40&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L40" s="1"/>
@@ -3316,21 +3328,21 @@
         <v>12.445700000000215</v>
       </c>
       <c r="G41" s="28" t="b">
-        <f>F41&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H41" s="27">
         <v>1.4545454978942871</v>
       </c>
       <c r="I41" s="27" t="b">
-        <f>H41&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J41" s="27">
         <v>2.5559063109962534</v>
       </c>
       <c r="K41" s="27" t="b">
-        <f>J41&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L41" s="1"/>
@@ -3359,21 +3371,21 @@
         <v>19.136500000000524</v>
       </c>
       <c r="G42" s="28" t="b">
-        <f>F42&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H42" s="27">
         <v>1.0555555820465088</v>
       </c>
       <c r="I42" s="27" t="b">
-        <f>H42&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J42" s="27">
         <v>2.1821329415967381</v>
       </c>
       <c r="K42" s="27" t="b">
-        <f>J42&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L42" s="1"/>
@@ -3402,21 +3414,21 @@
         <v>16.289999999999964</v>
       </c>
       <c r="G43" s="28" t="b">
-        <f>F43&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H43" s="27">
         <v>1.2666666507720947</v>
       </c>
       <c r="I43" s="27" t="b">
-        <f>H43&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J43" s="27">
         <v>2.2351150275299556</v>
       </c>
       <c r="K43" s="27" t="b">
-        <f>J43&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L43" s="1"/>
@@ -3445,21 +3457,21 @@
         <v>19.423400000000584</v>
       </c>
       <c r="G44" s="28" t="b">
-        <f>F44&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H44" s="27">
         <v>1.4444444179534912</v>
       </c>
       <c r="I44" s="27" t="b">
-        <f>H44&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J44" s="27">
         <v>2.2563945877466653</v>
       </c>
       <c r="K44" s="27" t="b">
-        <f>J44&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L44" s="1"/>
@@ -3488,21 +3500,21 @@
         <v>15.668000000000575</v>
       </c>
       <c r="G45" s="28" t="b">
-        <f>F45&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H45" s="27">
         <v>1.3333333730697632</v>
       </c>
       <c r="I45" s="27" t="b">
-        <f>H45&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J45" s="27">
         <v>1.8442597729147627</v>
       </c>
       <c r="K45" s="27" t="b">
-        <f>J45&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L45" s="1"/>
@@ -3531,21 +3543,21 @@
         <v>21.628399999999601</v>
       </c>
       <c r="G46" s="28" t="b">
-        <f>F46&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H46" s="27">
         <v>1.1428571939468384</v>
       </c>
       <c r="I46" s="27" t="b">
-        <f>H46&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J46" s="27">
         <v>1.941491965229206</v>
       </c>
       <c r="K46" s="27" t="b">
-        <f>J46&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L46" s="1"/>
@@ -3574,21 +3586,21 @@
         <v>18.023100000000341</v>
       </c>
       <c r="G47" s="28" t="b">
-        <f>F47&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H47" s="27">
         <v>1.529411792755127</v>
       </c>
       <c r="I47" s="27" t="b">
-        <f>H47&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J47" s="27">
         <v>2.6105699542884739</v>
       </c>
       <c r="K47" s="27" t="b">
-        <f>J47&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L47" s="1"/>
@@ -3617,21 +3629,21 @@
         <v>16.59940000000006</v>
       </c>
       <c r="G48" s="28" t="b">
-        <f>F48&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H48" s="27">
         <v>1.0625</v>
       </c>
       <c r="I48" s="27" t="b">
-        <f>H48&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J48" s="27">
         <v>1.9617984084357589</v>
       </c>
       <c r="K48" s="28" t="b">
-        <f>J48&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L48" s="1"/>
@@ -3660,21 +3672,21 @@
         <v>14.49080000000049</v>
       </c>
       <c r="G49" s="28" t="b">
-        <f>F49&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H49" s="27">
         <v>1.076923131942749</v>
       </c>
       <c r="I49" s="27" t="b">
-        <f>H49&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J49" s="27">
         <v>1.4637472955575213</v>
       </c>
       <c r="K49" s="28" t="b">
-        <f>J49&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L49" s="1"/>
@@ -3703,21 +3715,21 @@
         <v>13.318900000000212</v>
       </c>
       <c r="G50" s="28" t="b">
-        <f>F50&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H50" s="27">
         <v>1.076923131942749</v>
       </c>
       <c r="I50" s="27" t="b">
-        <f>H50&gt;1</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J50" s="27">
         <v>2.2896255306056905</v>
       </c>
       <c r="K50" s="28" t="b">
-        <f>J50&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L50" s="1"/>
@@ -3748,21 +3760,21 @@
         <v>62.388699999999972</v>
       </c>
       <c r="G51" s="66" t="b">
-        <f>F51&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H51" s="67">
         <v>0.67213112115859985</v>
       </c>
       <c r="I51" s="67" t="b">
-        <f>H51&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J51" s="67">
         <v>1.0980841145667868</v>
       </c>
       <c r="K51" s="67" t="b">
-        <f>J51&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L51" s="38"/>
@@ -3791,21 +3803,21 @@
         <v>17.60469999999998</v>
       </c>
       <c r="G52" s="28" t="b">
-        <f>F52&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52" s="27">
         <v>0.3333333432674408</v>
       </c>
       <c r="I52" s="27" t="b">
-        <f>H52&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J52" s="27">
         <v>0.93258326124346524</v>
       </c>
       <c r="K52" s="27" t="b">
-        <f>J52&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L52" s="1"/>
@@ -3834,21 +3846,21 @@
         <v>18.551899999999989</v>
       </c>
       <c r="G53" s="28" t="b">
-        <f>F53&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H53" s="27">
         <v>0.35294118523597717</v>
       </c>
       <c r="I53" s="27" t="b">
-        <f>H53&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J53" s="27">
         <v>1.7387335902164271</v>
       </c>
       <c r="K53" s="27" t="b">
-        <f>J53&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L53" s="1"/>
@@ -3877,21 +3889,21 @@
         <v>23.55520000000007</v>
       </c>
       <c r="G54" s="28" t="b">
-        <f>F54&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H54" s="27">
         <v>0.39130434393882751</v>
       </c>
       <c r="I54" s="27" t="b">
-        <f>H54&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J54" s="27">
         <v>1.2791024820369932</v>
       </c>
       <c r="K54" s="27" t="b">
-        <f>J54&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L54" s="1"/>
@@ -3920,21 +3932,21 @@
         <v>11.128799999999956</v>
       </c>
       <c r="G55" s="28" t="b">
-        <f>F55&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H55" s="27">
         <v>0.54545456171035767</v>
       </c>
       <c r="I55" s="27" t="b">
-        <f>H55&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J55" s="27">
         <v>1.7453205996817582</v>
       </c>
       <c r="K55" s="27" t="b">
-        <f>J55&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L55" s="1"/>
@@ -3963,21 +3975,21 @@
         <v>18.961199999999963</v>
       </c>
       <c r="G56" s="28" t="b">
-        <f>F56&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H56" s="27">
         <v>0.3684210479259491</v>
       </c>
       <c r="I56" s="27" t="b">
-        <f>H56&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J56" s="27">
         <v>1.1862925198788843</v>
       </c>
       <c r="K56" s="27" t="b">
-        <f>J56&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L56" s="1"/>
@@ -4006,21 +4018,21 @@
         <v>18.750300000000038</v>
       </c>
       <c r="G57" s="28" t="b">
-        <f>F57&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H57" s="27">
         <v>0.3888888955116272</v>
       </c>
       <c r="I57" s="27" t="b">
-        <f>H57&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J57" s="27">
         <v>0.54169056412927352</v>
       </c>
       <c r="K57" s="27" t="b">
-        <f>J57&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L57" s="1"/>
@@ -4049,21 +4061,21 @@
         <v>9.8867000000000189</v>
       </c>
       <c r="G58" s="28" t="b">
-        <f>F58&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H58" s="27">
         <v>0.54545456171035767</v>
       </c>
       <c r="I58" s="27" t="b">
-        <f>H58&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J58" s="27">
         <v>1.0809963787060279</v>
       </c>
       <c r="K58" s="27" t="b">
-        <f>J58&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L58" s="1"/>
@@ -4092,21 +4104,21 @@
         <v>13.893800000000056</v>
       </c>
       <c r="G59" s="28" t="b">
-        <f>F59&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H59" s="27">
         <v>0.61538463830947876</v>
       </c>
       <c r="I59" s="27" t="b">
-        <f>H59&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J59" s="27">
         <v>1.4672454769612753</v>
       </c>
       <c r="K59" s="27" t="b">
-        <f>J59&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L59" s="1"/>
@@ -4137,21 +4149,21 @@
         <v>18.809100000000171</v>
       </c>
       <c r="G60" s="65" t="b">
-        <f>F60&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H60" s="52">
         <v>0.52941179275512695</v>
       </c>
       <c r="I60" s="52" t="b">
-        <f>H60&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J60" s="52">
         <v>1.1728387167608565</v>
       </c>
       <c r="K60" s="52" t="b">
-        <f>J60&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L60" s="1"/>
@@ -4180,21 +4192,21 @@
         <v>15.824100000000044</v>
       </c>
       <c r="G61" s="28" t="b">
-        <f>F61&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H61" s="27">
         <v>0.9375</v>
       </c>
       <c r="I61" s="27" t="b">
-        <f>H61&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J61" s="27">
         <v>1.797920717181166</v>
       </c>
       <c r="K61" s="27" t="b">
-        <f>J61&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L61" s="1"/>
@@ -4223,21 +4235,21 @@
         <v>26.447900000000118</v>
       </c>
       <c r="G62" s="28" t="b">
-        <f>F62&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H62" s="27">
         <v>0.57692307233810425</v>
       </c>
       <c r="I62" s="27" t="b">
-        <f>H62&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J62" s="27">
         <v>0.97395621390253007</v>
       </c>
       <c r="K62" s="27" t="b">
-        <f>J62&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L62" s="1"/>
@@ -4266,21 +4278,21 @@
         <v>28.31880000000001</v>
       </c>
       <c r="G63" s="28" t="b">
-        <f>F63&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H63" s="27">
         <v>0.59259259700775146</v>
       </c>
       <c r="I63" s="27" t="b">
-        <f>H63&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J63" s="27">
         <v>0.89357129497719023</v>
       </c>
       <c r="K63" s="27" t="b">
-        <f>J63&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L63" s="1"/>
@@ -4309,21 +4321,21 @@
         <v>20.553300000000036</v>
       </c>
       <c r="G64" s="28" t="b">
-        <f>F64&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H64" s="27">
         <v>0.78947371244430542</v>
       </c>
       <c r="I64" s="27" t="b">
-        <f>H64&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J64" s="27">
         <v>1.2305029366017255</v>
       </c>
       <c r="K64" s="27" t="b">
-        <f>J64&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L64" s="1"/>
@@ -4352,21 +4364,21 @@
         <v>17.360299999999825</v>
       </c>
       <c r="G65" s="28" t="b">
-        <f>F65&gt;47.81</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H65" s="27">
         <v>0.875</v>
       </c>
       <c r="I65" s="27" t="b">
-        <f>H65&gt;1</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J65" s="27">
         <v>1.1556426470923129</v>
       </c>
       <c r="K65" s="27" t="b">
-        <f>J65&gt;3.8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L65" s="1"/>
@@ -4395,21 +4407,21 @@
         <v>18.983400000000074</v>
       </c>
       <c r="G66" s="28" t="b">
-        <f>F66&gt;47.81</f>
+        <f t="shared" ref="G66:G97" si="6">F66&gt;47.81</f>
         <v>0</v>
       </c>
       <c r="H66" s="27">
         <v>0.83333331346511841</v>
       </c>
       <c r="I66" s="27" t="b">
-        <f>H66&gt;1</f>
+        <f t="shared" ref="I66:I97" si="7">H66&gt;1</f>
         <v>0</v>
       </c>
       <c r="J66" s="27">
         <v>1.0647394994548494</v>
       </c>
       <c r="K66" s="27" t="b">
-        <f>J66&gt;3.8</f>
+        <f t="shared" ref="K66:K97" si="8">J66&gt;3.8</f>
         <v>0</v>
       </c>
       <c r="L66" s="1"/>
@@ -4438,21 +4450,21 @@
         <v>30.420599999999922</v>
       </c>
       <c r="G67" s="28" t="b">
-        <f>F67&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H67" s="27">
         <v>0.56666666269302368</v>
       </c>
       <c r="I67" s="27" t="b">
-        <f>H67&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J67" s="27">
         <v>1.0085349811763631</v>
       </c>
       <c r="K67" s="27" t="b">
-        <f>J67&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L67" s="1"/>
@@ -4481,21 +4493,21 @@
         <v>41.931699999999864</v>
       </c>
       <c r="G68" s="28" t="b">
-        <f>F68&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H68" s="27">
         <v>0.63414633274078369</v>
       </c>
       <c r="I68" s="27" t="b">
-        <f>H68&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J68" s="27">
         <v>0.86747864824339571</v>
       </c>
       <c r="K68" s="27" t="b">
-        <f>J68&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L68" s="1"/>
@@ -4524,21 +4536,21 @@
         <v>13.652700000000095</v>
       </c>
       <c r="G69" s="28" t="b">
-        <f>F69&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H69" s="27">
         <v>1</v>
       </c>
       <c r="I69" s="27" t="b">
-        <f>H69&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J69" s="27">
         <v>1.1800380143518787</v>
       </c>
       <c r="K69" s="27" t="b">
-        <f>J69&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L69" s="1"/>
@@ -4567,21 +4579,21 @@
         <v>11.823399999999992</v>
       </c>
       <c r="G70" s="28" t="b">
-        <f>F70&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H70" s="27">
         <v>0.45454546809196472</v>
       </c>
       <c r="I70" s="27" t="b">
-        <f>H70&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J70" s="27">
         <v>0.66285421244483056</v>
       </c>
       <c r="K70" s="27" t="b">
-        <f>J70&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L70" s="1"/>
@@ -4610,21 +4622,21 @@
         <v>27.252500000000055</v>
       </c>
       <c r="G71" s="28" t="b">
-        <f>F71&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H71" s="27">
         <v>0.76923078298568726</v>
       </c>
       <c r="I71" s="27" t="b">
-        <f>H71&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J71" s="27">
         <v>1.1099958689527012</v>
       </c>
       <c r="K71" s="27" t="b">
-        <f>J71&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L71" s="1"/>
@@ -4653,21 +4665,21 @@
         <v>35.86609999999996</v>
       </c>
       <c r="G72" s="28" t="b">
-        <f>F72&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H72" s="27">
         <v>0.91428571939468384</v>
       </c>
       <c r="I72" s="27" t="b">
-        <f>H72&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J72" s="27">
         <v>1.1655154511620403</v>
       </c>
       <c r="K72" s="27" t="b">
-        <f>J72&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L72" s="1"/>
@@ -4696,21 +4708,21 @@
         <v>34.346799999999803</v>
       </c>
       <c r="G73" s="28" t="b">
-        <f>F73&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H73" s="27">
         <v>0.87878787517547607</v>
       </c>
       <c r="I73" s="27" t="b">
-        <f>H73&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J73" s="27">
         <v>1.0789532626324936</v>
       </c>
       <c r="K73" s="27" t="b">
-        <f>J73&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L73" s="1"/>
@@ -4739,21 +4751,21 @@
         <v>14.446500000000015</v>
       </c>
       <c r="G74" s="28" t="b">
-        <f>F74&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H74" s="27">
         <v>0.8461538553237915</v>
       </c>
       <c r="I74" s="27" t="b">
-        <f>H74&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J74" s="27">
         <v>0.7621692216152709</v>
       </c>
       <c r="K74" s="27" t="b">
-        <f>J74&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L74" s="1"/>
@@ -4782,21 +4794,21 @@
         <v>24.188799999999901</v>
       </c>
       <c r="G75" s="28" t="b">
-        <f>F75&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H75" s="27">
         <v>0.78260868787765503</v>
       </c>
       <c r="I75" s="27" t="b">
-        <f>H75&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J75" s="27">
         <v>1.0190164010945342</v>
       </c>
       <c r="K75" s="27" t="b">
-        <f>J75&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L75" s="1"/>
@@ -4825,21 +4837,21 @@
         <v>24.643799999999828</v>
       </c>
       <c r="G76" s="28" t="b">
-        <f>F76&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H76" s="27">
         <v>0.875</v>
       </c>
       <c r="I76" s="27" t="b">
-        <f>H76&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J76" s="27">
         <v>1.3369674948707957</v>
       </c>
       <c r="K76" s="27" t="b">
-        <f>J76&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L76" s="1"/>
@@ -4868,21 +4880,21 @@
         <v>36.549800000000232</v>
       </c>
       <c r="G77" s="28" t="b">
-        <f>F77&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H77" s="27">
         <v>0.8611111044883728</v>
       </c>
       <c r="I77" s="27" t="b">
-        <f>H77&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J77" s="27">
         <v>1.3482469059780393</v>
       </c>
       <c r="K77" s="27" t="b">
-        <f>J77&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L77" s="1"/>
@@ -4911,21 +4923,21 @@
         <v>23.795200000000023</v>
       </c>
       <c r="G78" s="28" t="b">
-        <f>F78&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H78" s="27">
         <v>0.86956518888473511</v>
       </c>
       <c r="I78" s="27" t="b">
-        <f>H78&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J78" s="27">
         <v>1.2635526664495951</v>
       </c>
       <c r="K78" s="27" t="b">
-        <f>J78&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L78" s="1"/>
@@ -4954,21 +4966,21 @@
         <v>17.753499999999804</v>
       </c>
       <c r="G79" s="28" t="b">
-        <f>F79&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H79" s="27">
         <v>1</v>
       </c>
       <c r="I79" s="27" t="b">
-        <f>H79&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J79" s="27">
         <v>1.99672911644007</v>
       </c>
       <c r="K79" s="27" t="b">
-        <f>J79&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L79" s="1"/>
@@ -4997,21 +5009,21 @@
         <v>23.489800000000287</v>
       </c>
       <c r="G80" s="28" t="b">
-        <f>F80&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H80" s="27">
         <v>1</v>
       </c>
       <c r="I80" s="27" t="b">
-        <f>H80&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J80" s="27">
         <v>2.0635440349114891</v>
       </c>
       <c r="K80" s="27" t="b">
-        <f>J80&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L80" s="1"/>
@@ -5040,21 +5052,21 @@
         <v>11.700800000000072</v>
       </c>
       <c r="G81" s="28" t="b">
-        <f>F81&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H81" s="27">
         <v>0.5</v>
       </c>
       <c r="I81" s="27" t="b">
-        <f>H81&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J81" s="27">
         <v>0.74464572692724751</v>
       </c>
       <c r="K81" s="27" t="b">
-        <f>J81&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L81" s="1"/>
@@ -5083,21 +5095,21 @@
         <v>17.643900000000031</v>
       </c>
       <c r="G82" s="28" t="b">
-        <f>F82&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H82" s="27">
         <v>1</v>
       </c>
       <c r="I82" s="27" t="b">
-        <f>H82&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J82" s="27">
         <v>1.706799960247759</v>
       </c>
       <c r="K82" s="27" t="b">
-        <f>J82&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L82" s="1"/>
@@ -5126,21 +5138,21 @@
         <v>12.773000000000138</v>
       </c>
       <c r="G83" s="28" t="b">
-        <f>F83&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H83" s="27">
         <v>0.90909093618392944</v>
       </c>
       <c r="I83" s="27" t="b">
-        <f>H83&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J83" s="27">
         <v>1.2604260610013418</v>
       </c>
       <c r="K83" s="27" t="b">
-        <f>J83&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L83" s="1"/>
@@ -5169,21 +5181,21 @@
         <v>30.273699999999735</v>
       </c>
       <c r="G84" s="28" t="b">
-        <f>F84&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H84" s="27">
         <v>0.65517240762710571</v>
       </c>
       <c r="I84" s="27" t="b">
-        <f>H84&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J84" s="27">
         <v>1.2001156709158376</v>
       </c>
       <c r="K84" s="27" t="b">
-        <f>J84&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L84" s="1"/>
@@ -5212,21 +5224,21 @@
         <v>13.277399999999943</v>
       </c>
       <c r="G85" s="28" t="b">
-        <f>F85&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H85" s="27">
         <v>0.75</v>
       </c>
       <c r="I85" s="27" t="b">
-        <f>H85&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J85" s="27">
         <v>1.3714601238954227</v>
       </c>
       <c r="K85" s="27" t="b">
-        <f>J85&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L85" s="1"/>
@@ -5255,21 +5267,21 @@
         <v>18.354800000000068</v>
       </c>
       <c r="G86" s="28" t="b">
-        <f>F86&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H86" s="27">
         <v>0.82352942228317261</v>
       </c>
       <c r="I86" s="27" t="b">
-        <f>H86&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J86" s="27">
         <v>1.2446876110907865</v>
       </c>
       <c r="K86" s="27" t="b">
-        <f>J86&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L86" s="1"/>
@@ -5298,21 +5310,21 @@
         <v>11.464500000000044</v>
       </c>
       <c r="G87" s="28" t="b">
-        <f>F87&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H87" s="27">
         <v>0.5</v>
       </c>
       <c r="I87" s="27" t="b">
-        <f>H87&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J87" s="27">
         <v>0.9325799949143484</v>
       </c>
       <c r="K87" s="27" t="b">
-        <f>J87&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L87" s="1"/>
@@ -5341,21 +5353,21 @@
         <v>22.202600000000075</v>
       </c>
       <c r="G88" s="28" t="b">
-        <f>F88&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H88" s="27">
         <v>0.8571428656578064</v>
       </c>
       <c r="I88" s="27" t="b">
-        <f>H88&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J88" s="27">
         <v>1.8203199245759234</v>
       </c>
       <c r="K88" s="27" t="b">
-        <f>J88&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L88" s="1"/>
@@ -5384,21 +5396,21 @@
         <v>26.084799999999632</v>
       </c>
       <c r="G89" s="28" t="b">
-        <f>F89&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H89" s="27">
         <v>0.95999997854232788</v>
       </c>
       <c r="I89" s="27" t="b">
-        <f>H89&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J89" s="27">
         <v>1.9104277653731818</v>
       </c>
       <c r="K89" s="27" t="b">
-        <f>J89&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L89" s="1"/>
@@ -5427,21 +5439,21 @@
         <v>22.192800000000716</v>
       </c>
       <c r="G90" s="28" t="b">
-        <f>F90&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H90" s="27">
         <v>0.9047619104385376</v>
       </c>
       <c r="I90" s="27" t="b">
-        <f>H90&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J90" s="27">
         <v>1.8039004877672258</v>
       </c>
       <c r="K90" s="27" t="b">
-        <f>J90&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L90" s="1"/>
@@ -5470,21 +5482,21 @@
         <v>14.191799999999603</v>
       </c>
       <c r="G91" s="28" t="b">
-        <f>F91&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H91" s="27">
         <v>0.53846156597137451</v>
       </c>
       <c r="I91" s="27" t="b">
-        <f>H91&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J91" s="27">
         <v>0.94435041592538826</v>
       </c>
       <c r="K91" s="27" t="b">
-        <f>J91&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L91" s="1"/>
@@ -5513,21 +5525,21 @@
         <v>13.840799999999945</v>
       </c>
       <c r="G92" s="28" t="b">
-        <f>F92&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H92" s="27">
         <v>0.61538463830947876</v>
       </c>
       <c r="I92" s="27" t="b">
-        <f>H92&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J92" s="27">
         <v>1.3757679195420833</v>
       </c>
       <c r="K92" s="27" t="b">
-        <f>J92&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L92" s="1"/>
@@ -5556,21 +5568,21 @@
         <v>11.285100000000057</v>
       </c>
       <c r="G93" s="28" t="b">
-        <f>F93&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H93" s="27">
         <v>0.69999998807907104</v>
       </c>
       <c r="I93" s="27" t="b">
-        <f>H93&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J93" s="27">
         <v>1.6024148272637244</v>
       </c>
       <c r="K93" s="27" t="b">
-        <f>J93&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L93" s="1"/>
@@ -5599,21 +5611,21 @@
         <v>21.990600000000086</v>
       </c>
       <c r="G94" s="28" t="b">
-        <f>F94&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H94" s="27">
         <v>0.71428573131561279</v>
       </c>
       <c r="I94" s="27" t="b">
-        <f>H94&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J94" s="27">
         <v>1.2590569693616225</v>
       </c>
       <c r="K94" s="27" t="b">
-        <f>J94&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L94" s="1"/>
@@ -5642,21 +5654,21 @@
         <v>21.811200000000099</v>
       </c>
       <c r="G95" s="28" t="b">
-        <f>F95&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H95" s="27">
         <v>0.9047619104385376</v>
       </c>
       <c r="I95" s="27" t="b">
-        <f>H95&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J95" s="27">
         <v>1.4689187449183332</v>
       </c>
       <c r="K95" s="27" t="b">
-        <f>J95&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L95" s="1"/>
@@ -5685,21 +5697,21 @@
         <v>15.076600000000326</v>
       </c>
       <c r="G96" s="28" t="b">
-        <f>F96&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H96" s="27">
         <v>0.57142859697341919</v>
       </c>
       <c r="I96" s="27" t="b">
-        <f>H96&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J96" s="27">
         <v>0.9918855103567833</v>
       </c>
       <c r="K96" s="27" t="b">
-        <f>J96&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L96" s="1"/>
@@ -5728,21 +5740,21 @@
         <v>12.658699999999953</v>
       </c>
       <c r="G97" s="28" t="b">
-        <f>F97&gt;47.81</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H97" s="27">
         <v>0.5</v>
       </c>
       <c r="I97" s="27" t="b">
-        <f>H97&gt;1</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J97" s="27">
         <v>0.83858927899841873</v>
       </c>
       <c r="K97" s="27" t="b">
-        <f>J97&gt;3.8</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L97" s="1"/>
@@ -5771,21 +5783,21 @@
         <v>12.684499999999389</v>
       </c>
       <c r="G98" s="28" t="b">
-        <f>F98&gt;47.81</f>
+        <f t="shared" ref="G98:G129" si="9">F98&gt;47.81</f>
         <v>0</v>
       </c>
       <c r="H98" s="27">
         <v>0.75</v>
       </c>
       <c r="I98" s="27" t="b">
-        <f>H98&gt;1</f>
+        <f t="shared" ref="I98:I129" si="10">H98&gt;1</f>
         <v>0</v>
       </c>
       <c r="J98" s="27">
         <v>1.0464428538194994</v>
       </c>
       <c r="K98" s="27" t="b">
-        <f>J98&gt;3.8</f>
+        <f t="shared" ref="K98:K129" si="11">J98&gt;3.8</f>
         <v>0</v>
       </c>
       <c r="L98" s="1"/>
@@ -5814,21 +5826,21 @@
         <v>12.509299999999712</v>
       </c>
       <c r="G99" s="28" t="b">
-        <f>F99&gt;47.81</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H99" s="27">
         <v>0.83333331346511841</v>
       </c>
       <c r="I99" s="27" t="b">
-        <f>H99&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J99" s="27">
         <v>1.0647417854889052</v>
       </c>
       <c r="K99" s="27" t="b">
-        <f>J99&gt;3.8</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L99" s="1"/>
@@ -5857,21 +5869,21 @@
         <v>25.311200000000099</v>
       </c>
       <c r="G100" s="28" t="b">
-        <f>F100&gt;47.81</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H100" s="27">
         <v>0.91666668653488159</v>
       </c>
       <c r="I100" s="27" t="b">
-        <f>H100&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J100" s="27">
         <v>1.7443379482399035</v>
       </c>
       <c r="K100" s="27" t="b">
-        <f>J100&gt;3.8</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L100" s="1"/>
@@ -5900,21 +5912,21 @@
         <v>20.037399999999252</v>
       </c>
       <c r="G101" s="28" t="b">
-        <f>F101&gt;47.81</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H101" s="27">
         <v>0.3684210479259491</v>
       </c>
       <c r="I101" s="27" t="b">
-        <f>H101&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J101" s="27">
         <v>0.61647798465790182</v>
       </c>
       <c r="K101" s="27" t="b">
-        <f>J101&gt;3.8</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L101" s="1"/>
@@ -5943,21 +5955,21 @@
         <v>11.101700000000164</v>
       </c>
       <c r="G102" s="28" t="b">
-        <f>F102&gt;47.81</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H102" s="27">
         <v>0.5</v>
       </c>
       <c r="I102" s="27" t="b">
-        <f>H102&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J102" s="27">
         <v>1.7655940011127527</v>
       </c>
       <c r="K102" s="27" t="b">
-        <f>J102&gt;3.8</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L102" s="1"/>
@@ -5986,21 +5998,21 @@
         <v>13.139299999999821</v>
       </c>
       <c r="G103" s="28" t="b">
-        <f>F103&gt;47.81</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H103" s="27">
         <v>0.5</v>
       </c>
       <c r="I103" s="27" t="b">
-        <f>H103&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J103" s="27">
         <v>1.9066291225104004</v>
       </c>
       <c r="K103" s="27" t="b">
-        <f>J103&gt;3.8</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L103" s="1"/>
@@ -6029,21 +6041,21 @@
         <v>14.099700000000666</v>
       </c>
       <c r="G104" s="28" t="b">
-        <f>F104&gt;47.81</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H104" s="27">
         <v>0.46153846383094788</v>
       </c>
       <c r="I104" s="27" t="b">
-        <f>H104&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J104" s="27">
         <v>1.7034507472633065</v>
       </c>
       <c r="K104" s="27" t="b">
-        <f>J104&gt;3.8</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L104" s="1"/>
@@ -6072,21 +6084,21 @@
         <v>13.391799999999421</v>
       </c>
       <c r="G105" s="28" t="b">
-        <f>F105&gt;47.81</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H105" s="27">
         <v>0.30769231915473938</v>
       </c>
       <c r="I105" s="27" t="b">
-        <f>H105&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J105" s="27">
         <v>1.2888481251376862</v>
       </c>
       <c r="K105" s="27" t="b">
-        <f>J105&gt;3.8</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L105" s="1"/>
@@ -6115,21 +6127,21 @@
         <v>13.544400000000678</v>
       </c>
       <c r="G106" s="28" t="b">
-        <f>F106&gt;47.81</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H106" s="27">
         <v>0.76923078298568726</v>
       </c>
       <c r="I106" s="27" t="b">
-        <f>H106&gt;1</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J106" s="27">
         <v>2.8454849985884647</v>
       </c>
       <c r="K106" s="27" t="b">
-        <f>J106&gt;3.8</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L106" s="1"/>
@@ -17323,7 +17335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B23895A9-0C57-44D4-BE80-659483C5FF06}">
   <dimension ref="A1:V278"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -17445,21 +17457,21 @@
         <v>58.444999999999936</v>
       </c>
       <c r="G3" s="40" t="b">
-        <f>F3&gt;25.78</f>
+        <f t="shared" ref="G3:G26" si="0">F3&gt;25.78</f>
         <v>1</v>
       </c>
       <c r="H3" s="37">
         <v>2.1904761791229248</v>
       </c>
       <c r="I3" s="40" t="b">
-        <f t="shared" ref="I3:I17" si="0">H3&gt;1</f>
+        <f t="shared" ref="I3:I17" si="1">H3&gt;1</f>
         <v>1</v>
       </c>
       <c r="J3" s="37">
         <v>19.685808655185461</v>
       </c>
       <c r="K3" s="40" t="b">
-        <f t="shared" ref="K3:K17" si="1">J3&gt;13.06</f>
+        <f t="shared" ref="K3:K17" si="2">J3&gt;13.06</f>
         <v>1</v>
       </c>
       <c r="L3" s="37"/>
@@ -17495,21 +17507,21 @@
         <v>76.152099999999791</v>
       </c>
       <c r="G4" s="40" t="b">
-        <f>F4&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H4" s="37">
         <v>2.5</v>
       </c>
       <c r="I4" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J4" s="37">
         <v>21.51059707871876</v>
       </c>
       <c r="K4" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L4" s="37"/>
@@ -17538,21 +17550,21 @@
         <v>73.069799999999759</v>
       </c>
       <c r="G5" s="40" t="b">
-        <f>F5&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H5" s="37">
         <v>2.068493127822876</v>
       </c>
       <c r="I5" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J5" s="37">
         <v>20.735782741246112</v>
       </c>
       <c r="K5" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L5" s="37"/>
@@ -17581,21 +17593,21 @@
         <v>73.641799999999876</v>
       </c>
       <c r="G6" s="40" t="b">
-        <f>F6&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H6" s="37">
         <v>2.675675630569458</v>
       </c>
       <c r="I6" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J6" s="37">
         <v>24.295725207606516</v>
       </c>
       <c r="K6" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L6"/>
@@ -17624,21 +17636,21 @@
         <v>64.235000000000127</v>
       </c>
       <c r="G7" s="40" t="b">
-        <f>F7&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H7" s="37">
         <v>3.3384616374969482</v>
       </c>
       <c r="I7" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J7" s="37">
         <v>34.53801006117213</v>
       </c>
       <c r="K7" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L7"/>
@@ -17666,21 +17678,21 @@
         <v>76.552200000000084</v>
       </c>
       <c r="G8" s="40" t="b">
-        <f>F8&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H8" s="37">
         <v>2.5194804668426514</v>
       </c>
       <c r="I8" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J8" s="37">
         <v>29.043907997738874</v>
       </c>
       <c r="K8" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L8"/>
@@ -17708,21 +17720,21 @@
         <v>60.825300000000425</v>
       </c>
       <c r="G9" s="40" t="b">
-        <f>F9&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H9" s="37">
         <v>3.4590163230895996</v>
       </c>
       <c r="I9" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J9" s="37">
         <v>37.663399155292254</v>
       </c>
       <c r="K9" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L9"/>
@@ -17756,21 +17768,21 @@
         <v>73.10280000000057</v>
       </c>
       <c r="G10" s="40" t="b">
-        <f>F10&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H10" s="37">
         <v>2.7945206165313721</v>
       </c>
       <c r="I10" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J10" s="37">
         <v>34.104014214676965</v>
       </c>
       <c r="K10" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L10"/>
@@ -17804,21 +17816,21 @@
         <v>76.015899999999419</v>
       </c>
       <c r="G11" s="40" t="b">
-        <f>F11&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H11" s="37">
         <v>2.8157894611358643</v>
       </c>
       <c r="I11" s="47" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J11" s="37">
         <v>32.3820630671025</v>
       </c>
       <c r="K11" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L11"/>
@@ -17852,21 +17864,21 @@
         <v>65.289099999999962</v>
       </c>
       <c r="G12" s="40" t="b">
-        <f>F12&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H12" s="37">
         <v>2.8125</v>
       </c>
       <c r="I12" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J12" s="37">
         <v>30.783266645758495</v>
       </c>
       <c r="K12" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L12"/>
@@ -17900,21 +17912,21 @@
         <v>78.50839999999971</v>
       </c>
       <c r="G13" s="40" t="b">
-        <f>F13&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H13" s="37">
         <v>2.9871795177459717</v>
       </c>
       <c r="I13" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J13" s="37">
         <v>29.964510333861046</v>
       </c>
       <c r="K13" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L13"/>
@@ -17948,21 +17960,21 @@
         <v>70.119099999999889</v>
       </c>
       <c r="G14" s="40" t="b">
-        <f>F14&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H14" s="37">
         <v>3.6428570747375488</v>
       </c>
       <c r="I14" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J14" s="37">
         <v>38.527036348398305</v>
       </c>
       <c r="K14" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L14"/>
@@ -17996,21 +18008,21 @@
         <v>62.15730000000076</v>
       </c>
       <c r="G15" s="40" t="b">
-        <f>F15&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H15" s="37">
         <v>3.1129031181335449</v>
       </c>
       <c r="I15" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J15" s="37">
         <v>35.5888958277189</v>
       </c>
       <c r="K15" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L15"/>
@@ -18044,21 +18056,21 @@
         <v>81.520900000000438</v>
       </c>
       <c r="G16" s="40" t="b">
-        <f>F16&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H16" s="37">
         <v>2.8518519401550293</v>
       </c>
       <c r="I16" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J16" s="37">
         <v>28.223590545854147</v>
       </c>
       <c r="K16" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L16"/>
@@ -18092,21 +18104,21 @@
         <v>60.18289999999979</v>
       </c>
       <c r="G17" s="40" t="b">
-        <f>F17&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H17" s="37">
         <v>3.1525423526763916</v>
       </c>
       <c r="I17" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J17" s="37">
         <v>30.291621077901546</v>
       </c>
       <c r="K17" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L17"/>
@@ -18140,21 +18152,21 @@
         <v>84.791699999999764</v>
       </c>
       <c r="G18" s="40" t="b">
-        <f>F18&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H18" s="37">
         <v>2.654761791229248</v>
       </c>
       <c r="I18" s="40" t="b">
-        <f t="shared" ref="I18:I26" si="2">H18&gt;1</f>
+        <f t="shared" ref="I18:I26" si="3">H18&gt;1</f>
         <v>1</v>
       </c>
       <c r="J18" s="37">
         <v>22.527665298682898</v>
       </c>
       <c r="K18" s="40" t="b">
-        <f t="shared" ref="K18:K26" si="3">J18&gt;13.06</f>
+        <f t="shared" ref="K18:K26" si="4">J18&gt;13.06</f>
         <v>1</v>
       </c>
       <c r="L18"/>
@@ -18188,21 +18200,21 @@
         <v>59.642399999999725</v>
       </c>
       <c r="G19" s="40" t="b">
-        <f>F19&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H19" s="37">
         <v>3</v>
       </c>
       <c r="I19" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J19" s="37">
         <v>28.490298486411607</v>
       </c>
       <c r="K19" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L19"/>
@@ -18236,21 +18248,21 @@
         <v>86.856600000000071</v>
       </c>
       <c r="G20" s="40" t="b">
-        <f>F20&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H20" s="37">
         <v>2.2906975746154785</v>
       </c>
       <c r="I20" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J20" s="37">
         <v>18.026299307793511</v>
       </c>
       <c r="K20" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L20"/>
@@ -18284,21 +18296,21 @@
         <v>87.815999999999804</v>
       </c>
       <c r="G21" s="40" t="b">
-        <f>F21&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H21" s="37">
         <v>2.6206896305084229</v>
       </c>
       <c r="I21" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J21" s="37">
         <v>22.956642177692647</v>
       </c>
       <c r="K21" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L21"/>
@@ -18332,21 +18344,21 @@
         <v>60.693499999999403</v>
       </c>
       <c r="G22" s="40" t="b">
-        <f>F22&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H22" s="37">
         <v>3.2166666984558105</v>
       </c>
       <c r="I22" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J22" s="37">
         <v>28.675073742704864</v>
       </c>
       <c r="K22" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L22"/>
@@ -18380,21 +18392,21 @@
         <v>77.350199999999859</v>
       </c>
       <c r="G23" s="40" t="b">
-        <f>F23&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H23" s="37">
         <v>2.2105262279510498</v>
       </c>
       <c r="I23" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J23" s="37">
         <v>23.036606215593697</v>
       </c>
       <c r="K23" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L23"/>
@@ -18428,21 +18440,21 @@
         <v>78.228099999999358</v>
       </c>
       <c r="G24" s="40" t="b">
-        <f>F24&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H24" s="37">
         <v>2.8311688899993896</v>
       </c>
       <c r="I24" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J24" s="37">
         <v>23.186744625182058</v>
       </c>
       <c r="K24" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L24"/>
@@ -18476,21 +18488,21 @@
         <v>54.526299999999537</v>
       </c>
       <c r="G25" s="40" t="b">
-        <f>F25&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H25" s="37">
         <v>3.0370371341705322</v>
       </c>
       <c r="I25" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J25" s="37">
         <v>22.825801307547483</v>
       </c>
       <c r="K25" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L25"/>
@@ -18518,21 +18530,21 @@
         <v>50.074099999999817</v>
       </c>
       <c r="G26" s="40" t="b">
-        <f>F26&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H26" s="37">
         <v>3.6600000858306885</v>
       </c>
       <c r="I26" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J26" s="37">
         <v>40.553659956034288</v>
       </c>
       <c r="K26" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L26"/>
@@ -23345,8 +23357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BD18D4-6B85-4432-8EBF-E544B94AE430}">
   <dimension ref="A1:V334"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G23" sqref="A1:P82"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -23463,7 +23475,7 @@
         <v>12.371700000000004</v>
       </c>
       <c r="G3" s="28" t="b">
-        <f>F3&gt;25.78</f>
+        <f t="shared" ref="G3:G34" si="0">F3&gt;25.78</f>
         <v>0</v>
       </c>
       <c r="H3" s="37">
@@ -23516,21 +23528,21 @@
         <v>17.772899999999993</v>
       </c>
       <c r="G4" s="28" t="b">
-        <f>F4&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="37">
         <v>0.25</v>
       </c>
       <c r="I4" s="28" t="b">
-        <f t="shared" ref="I4:I67" si="0">H4&gt;1</f>
+        <f t="shared" ref="I4:I67" si="1">H4&gt;1</f>
         <v>0</v>
       </c>
       <c r="J4" s="37">
         <v>0.59317951857948525</v>
       </c>
       <c r="K4" s="31" t="b">
-        <f t="shared" ref="K4:K67" si="1">J4&gt;13.06</f>
+        <f t="shared" ref="K4:K67" si="2">J4&gt;13.06</f>
         <v>0</v>
       </c>
       <c r="L4" s="37"/>
@@ -23561,21 +23573,21 @@
         <v>17.795200000000023</v>
       </c>
       <c r="G5" s="28" t="b">
-        <f>F5&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="37">
         <v>0.5</v>
       </c>
       <c r="I5" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5" s="37">
         <v>0.78976369145291381</v>
       </c>
       <c r="K5" s="31" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L5" s="37"/>
@@ -23600,21 +23612,21 @@
         <v>16.22969999999998</v>
       </c>
       <c r="G6" s="28" t="b">
-        <f>F6&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="37">
         <v>0.28571429848670959</v>
       </c>
       <c r="I6" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6" s="37">
         <v>0.67167845261664838</v>
       </c>
       <c r="K6" s="31" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L6" s="37"/>
@@ -23639,21 +23651,21 @@
         <v>11.097200000000043</v>
       </c>
       <c r="G7" s="28" t="b">
-        <f>F7&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="37">
         <v>1.2999999523162842</v>
       </c>
       <c r="I7" s="43" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J7" s="37">
         <v>1.1900239907253312</v>
       </c>
       <c r="K7" s="31" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L7" s="37"/>
@@ -23678,21 +23690,21 @@
         <v>16.290700000000015</v>
       </c>
       <c r="G8" s="28" t="b">
-        <f>F8&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="37">
         <v>0.86666667461395264</v>
       </c>
       <c r="I8" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="37">
         <v>1.2858190852646163</v>
       </c>
       <c r="K8" s="31" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L8" s="37"/>
@@ -23717,21 +23729,21 @@
         <v>19.152899999999931</v>
       </c>
       <c r="G9" s="28" t="b">
-        <f>F9&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="37">
         <v>0.4444444477558136</v>
       </c>
       <c r="I9" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J9" s="37">
         <v>0.82570618070384705</v>
       </c>
       <c r="K9" s="31" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L9" s="37"/>
@@ -23756,21 +23768,21 @@
         <v>15.627399999999852</v>
       </c>
       <c r="G10" s="28" t="b">
-        <f>F10&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="37">
         <v>0.3333333432674408</v>
       </c>
       <c r="I10" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="37">
         <v>0.703026459354814</v>
       </c>
       <c r="K10" s="31" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L10" s="37"/>
@@ -23795,21 +23807,21 @@
         <v>11.500400000000127</v>
       </c>
       <c r="G11" s="28" t="b">
-        <f>F11&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="37">
         <v>0.60000002384185791</v>
       </c>
       <c r="I11" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11" s="37">
         <v>1.0527571921298688</v>
       </c>
       <c r="K11" s="31" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L11" s="37"/>
@@ -23834,21 +23846,21 @@
         <v>15.185899999999947</v>
       </c>
       <c r="G12" s="28" t="b">
-        <f>F12&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="37">
         <v>0.8571428656578064</v>
       </c>
       <c r="I12" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J12" s="37">
         <v>1.0828988759147025</v>
       </c>
       <c r="K12" s="31" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L12" s="37"/>
@@ -23871,21 +23883,21 @@
         <v>12.36609999999996</v>
       </c>
       <c r="G13" s="28" t="b">
-        <f>F13&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="37">
         <v>0.72727274894714355</v>
       </c>
       <c r="I13" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="37">
         <v>1.2125455840002326</v>
       </c>
       <c r="K13" s="31" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L13" s="37"/>
@@ -23910,21 +23922,21 @@
         <v>15.614699999999857</v>
       </c>
       <c r="G14" s="28" t="b">
-        <f>F14&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="37">
         <v>0.4285714328289032</v>
       </c>
       <c r="I14" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="37">
         <v>0.50066731472388482</v>
       </c>
       <c r="K14" s="31" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L14" s="37"/>
@@ -23949,21 +23961,21 @@
         <v>11.628500000000031</v>
       </c>
       <c r="G15" s="28" t="b">
-        <f>F15&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="37">
         <v>1.0909091234207153</v>
       </c>
       <c r="I15" s="43" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J15" s="37">
         <v>1.2900034779581859</v>
       </c>
       <c r="K15" s="49" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="37"/>
@@ -23988,21 +24000,21 @@
         <v>11.321599999999989</v>
       </c>
       <c r="G16" s="28" t="b">
-        <f>F16&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="37">
         <v>1.2000000476837158</v>
       </c>
       <c r="I16" s="43" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J16" s="37">
         <v>1.2808218348042448</v>
       </c>
       <c r="K16" s="49" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="37"/>
@@ -24025,21 +24037,21 @@
         <v>19.87070000000017</v>
       </c>
       <c r="G17" s="28" t="b">
-        <f>F17&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="37">
         <v>0.63157892227172852</v>
       </c>
       <c r="I17" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="37">
         <v>0.88652580989291574</v>
       </c>
       <c r="K17" s="31" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="37"/>
@@ -24064,21 +24076,21 @@
         <v>19.481300000000147</v>
       </c>
       <c r="G18" s="28" t="b">
-        <f>F18&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="37">
         <v>1.1111111640930176</v>
       </c>
       <c r="I18" s="43" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J18" s="37">
         <v>1.2960670944882284</v>
       </c>
       <c r="K18" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18" s="37"/>
@@ -24101,21 +24113,21 @@
         <v>12.237499999999955</v>
       </c>
       <c r="G19" s="28" t="b">
-        <f>F19&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="37">
         <v>1.1818181276321411</v>
       </c>
       <c r="I19" s="43" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J19" s="37">
         <v>1.6647094683448105</v>
       </c>
       <c r="K19" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19" s="37"/>
@@ -24140,21 +24152,21 @@
         <v>15.871799999999894</v>
       </c>
       <c r="G20" s="28" t="b">
-        <f>F20&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="37">
         <v>1.0666667222976685</v>
       </c>
       <c r="I20" s="43" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J20" s="37">
         <v>1.295436150375294</v>
       </c>
       <c r="K20" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20" s="37"/>
@@ -24177,21 +24189,21 @@
         <v>12.867200000000139</v>
       </c>
       <c r="G21" s="28" t="b">
-        <f>F21&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="37">
         <v>0.90909093618392944</v>
       </c>
       <c r="I21" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J21" s="37">
         <v>1.2086078170894778</v>
       </c>
       <c r="K21" s="31" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21" s="37"/>
@@ -24216,21 +24228,21 @@
         <v>11.972999999999956</v>
       </c>
       <c r="G22" s="28" t="b">
-        <f>F22&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="37">
         <v>1.5454545021057129</v>
       </c>
       <c r="I22" s="43" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J22" s="37">
         <v>1.2635744271792173</v>
       </c>
       <c r="K22" s="50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22" s="37"/>
@@ -24259,21 +24271,21 @@
         <v>58.444999999999936</v>
       </c>
       <c r="G23" s="37" t="b">
-        <f>F23&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H23" s="37">
         <v>2.1904761791229248</v>
       </c>
       <c r="I23" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J23" s="37">
         <v>19.685808655185461</v>
       </c>
       <c r="K23" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L23" s="37"/>
@@ -24296,21 +24308,21 @@
         <v>24.350000000000364</v>
       </c>
       <c r="G24" s="28" t="b">
-        <f>F24&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="37">
         <v>0.52173912525177002</v>
       </c>
       <c r="I24" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24" s="37">
         <v>0.87105504417968282</v>
       </c>
       <c r="K24" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24" s="37"/>
@@ -24333,21 +24345,21 @@
         <v>11.009799999999814</v>
       </c>
       <c r="G25" s="28" t="b">
-        <f>F25&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="37">
         <v>1.3999999761581421</v>
       </c>
       <c r="I25" s="43" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J25" s="37">
         <v>1.3009877265412759</v>
       </c>
       <c r="K25" s="51" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25" s="37"/>
@@ -24370,21 +24382,21 @@
         <v>16.409999999999854</v>
       </c>
       <c r="G26" s="28" t="b">
-        <f>F26&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="37">
         <v>1.1333333253860474</v>
       </c>
       <c r="I26" s="43" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J26" s="37">
         <v>1.1396293880113826</v>
       </c>
       <c r="K26" s="51" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26" s="37"/>
@@ -24407,21 +24419,21 @@
         <v>13.610099999999875</v>
       </c>
       <c r="G27" s="28" t="b">
-        <f>F27&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="37">
         <v>1.076923131942749</v>
       </c>
       <c r="I27" s="43" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J27" s="37">
         <v>1.2742223879088923</v>
       </c>
       <c r="K27" s="51" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="37"/>
@@ -24444,21 +24456,21 @@
         <v>12.168100000000322</v>
       </c>
       <c r="G28" s="28" t="b">
-        <f>F28&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="37">
         <v>1.1818181276321411</v>
       </c>
       <c r="I28" s="43" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J28" s="37">
         <v>1.0897169175123449</v>
       </c>
       <c r="K28" s="51" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28" s="37"/>
@@ -24487,21 +24499,21 @@
         <v>76.152099999999791</v>
       </c>
       <c r="G29" s="37" t="b">
-        <f>F29&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H29" s="37">
         <v>2.5</v>
       </c>
       <c r="I29" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J29" s="37">
         <v>21.51059707871876</v>
       </c>
       <c r="K29" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L29" s="37"/>
@@ -24524,21 +24536,21 @@
         <v>13.756900000000314</v>
       </c>
       <c r="G30" s="28" t="b">
-        <f>F30&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="37">
         <v>0.8461538553237915</v>
       </c>
       <c r="I30" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J30" s="37">
         <v>1.0624067427097923</v>
       </c>
       <c r="K30" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30" s="37"/>
@@ -24567,21 +24579,21 @@
         <v>73.069799999999759</v>
       </c>
       <c r="G31" s="37" t="b">
-        <f>F31&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H31" s="37">
         <v>2.068493127822876</v>
       </c>
       <c r="I31" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J31" s="37">
         <v>20.735782741246112</v>
       </c>
       <c r="K31" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L31" s="37"/>
@@ -24604,21 +24616,21 @@
         <v>14.694799999999759</v>
       </c>
       <c r="G32" s="28" t="b">
-        <f>F32&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="37">
         <v>0.5</v>
       </c>
       <c r="I32" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J32" s="37">
         <v>0.84887605798330323</v>
       </c>
       <c r="K32" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L32" s="37"/>
@@ -24641,21 +24653,21 @@
         <v>15.069300000000112</v>
       </c>
       <c r="G33" s="28" t="b">
-        <f>F33&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" s="37">
         <v>1.1428571939468384</v>
       </c>
       <c r="I33" s="43" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J33" s="37">
         <v>1.2123676853542655</v>
       </c>
       <c r="K33" s="48" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33" s="37"/>
@@ -24684,21 +24696,21 @@
         <v>73.641799999999876</v>
       </c>
       <c r="G34" s="37" t="b">
-        <f>F34&gt;25.78</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="H34" s="37">
         <v>2.675675630569458</v>
       </c>
       <c r="I34" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J34" s="37">
         <v>24.295725207606516</v>
       </c>
       <c r="K34" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L34"/>
@@ -24721,21 +24733,21 @@
         <v>11.858699999999772</v>
       </c>
       <c r="G35" s="28" t="b">
-        <f>F35&gt;25.78</f>
+        <f t="shared" ref="G35:G66" si="3">F35&gt;25.78</f>
         <v>0</v>
       </c>
       <c r="H35" s="37">
         <v>0.63636362552642822</v>
       </c>
       <c r="I35" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J35" s="37">
         <v>1.2334578810995047</v>
       </c>
       <c r="K35" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L35"/>
@@ -24758,21 +24770,21 @@
         <v>22.090999999999894</v>
       </c>
       <c r="G36" s="28" t="b">
-        <f>F36&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H36" s="37">
         <v>0.52380955219268799</v>
       </c>
       <c r="I36" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J36" s="37">
         <v>0.814570377966646</v>
       </c>
       <c r="K36" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L36"/>
@@ -24795,21 +24807,21 @@
         <v>18.745499999999993</v>
       </c>
       <c r="G37" s="28" t="b">
-        <f>F37&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H37" s="37">
         <v>0.6111111044883728</v>
       </c>
       <c r="I37" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J37" s="37">
         <v>0.73782226458265854</v>
       </c>
       <c r="K37" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L37"/>
@@ -24832,21 +24844,21 @@
         <v>18.607099999999718</v>
       </c>
       <c r="G38" s="28" t="b">
-        <f>F38&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H38" s="37">
         <v>0.72222220897674561</v>
       </c>
       <c r="I38" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J38" s="37">
         <v>0.77804542646739205</v>
       </c>
       <c r="K38" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L38"/>
@@ -24868,21 +24880,21 @@
         <v>13.785900000000311</v>
       </c>
       <c r="G39" s="28" t="b">
-        <f>F39&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H39" s="37">
         <v>1</v>
       </c>
       <c r="I39" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J39" s="37">
         <v>1.1137075199983228</v>
       </c>
       <c r="K39" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L39"/>
@@ -24904,21 +24916,21 @@
         <v>26.146900000000187</v>
       </c>
       <c r="G40" s="37" t="b">
-        <f>F40&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H40" s="37">
         <v>0.63999998569488525</v>
       </c>
       <c r="I40" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J40" s="37">
         <v>0.81062225811666255</v>
       </c>
       <c r="K40" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L40"/>
@@ -24940,21 +24952,21 @@
         <v>18.699000000000069</v>
       </c>
       <c r="G41" s="28" t="b">
-        <f>F41&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H41" s="37">
         <v>0.8888888955116272</v>
       </c>
       <c r="I41" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J41" s="37">
         <v>1.0243564052976668</v>
       </c>
       <c r="K41" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L41"/>
@@ -24976,21 +24988,21 @@
         <v>18.327099999999973</v>
       </c>
       <c r="G42" s="28" t="b">
-        <f>F42&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H42" s="37">
         <v>0.76470589637756348</v>
       </c>
       <c r="I42" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J42" s="37">
         <v>1.13948492365025</v>
       </c>
       <c r="K42" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L42"/>
@@ -25012,21 +25024,21 @@
         <v>11.345200000000204</v>
       </c>
       <c r="G43" s="28" t="b">
-        <f>F43&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H43" s="37">
         <v>0.80000001192092896</v>
       </c>
       <c r="I43" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J43" s="37">
         <v>1.0954274084210751</v>
       </c>
       <c r="K43" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L43"/>
@@ -25048,21 +25060,21 @@
         <v>15.403399999999692</v>
       </c>
       <c r="G44" s="28" t="b">
-        <f>F44&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H44" s="37">
         <v>0.78571426868438721</v>
       </c>
       <c r="I44" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J44" s="37">
         <v>1.1295878837879985</v>
       </c>
       <c r="K44" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L44"/>
@@ -25090,21 +25102,21 @@
         <v>64.235000000000127</v>
       </c>
       <c r="G45" s="37" t="b">
-        <f>F45&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H45" s="37">
         <v>3.3384616374969482</v>
       </c>
       <c r="I45" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J45" s="37">
         <v>34.53801006117213</v>
       </c>
       <c r="K45" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L45"/>
@@ -25132,21 +25144,21 @@
         <v>76.552200000000084</v>
       </c>
       <c r="G46" s="37" t="b">
-        <f>F46&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H46" s="37">
         <v>2.5194804668426514</v>
       </c>
       <c r="I46" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J46" s="37">
         <v>29.043907997738874</v>
       </c>
       <c r="K46" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L46"/>
@@ -25168,21 +25180,21 @@
         <v>14.113100000000031</v>
       </c>
       <c r="G47" s="28" t="b">
-        <f>F47&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H47" s="37">
         <v>0.5</v>
       </c>
       <c r="I47" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J47" s="37">
         <v>0.88676313892422354</v>
       </c>
       <c r="K47" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L47"/>
@@ -25204,21 +25216,21 @@
         <v>12.892100000000028</v>
       </c>
       <c r="G48" s="28" t="b">
-        <f>F48&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H48" s="37">
         <v>0.91666668653488159</v>
       </c>
       <c r="I48" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J48" s="37">
         <v>1.2997536215613619</v>
       </c>
       <c r="K48" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L48"/>
@@ -25246,21 +25258,21 @@
         <v>60.825300000000425</v>
       </c>
       <c r="G49" s="37" t="b">
-        <f>F49&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H49" s="37">
         <v>3.4590163230895996</v>
       </c>
       <c r="I49" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J49" s="37">
         <v>37.663399155292254</v>
       </c>
       <c r="K49" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L49"/>
@@ -25282,21 +25294,21 @@
         <v>14.645900000000438</v>
       </c>
       <c r="G50" s="28" t="b">
-        <f>F50&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H50" s="37">
         <v>0.78571426868438721</v>
       </c>
       <c r="I50" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J50" s="37">
         <v>1.2308707275395805</v>
       </c>
       <c r="K50" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L50"/>
@@ -25324,21 +25336,21 @@
         <v>73.10280000000057</v>
       </c>
       <c r="G51" s="37" t="b">
-        <f>F51&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H51" s="37">
         <v>2.7945206165313721</v>
       </c>
       <c r="I51" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J51" s="37">
         <v>34.104014214676965</v>
       </c>
       <c r="K51" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L51"/>
@@ -25360,21 +25372,21 @@
         <v>11.61239999999998</v>
       </c>
       <c r="G52" s="28" t="b">
-        <f>F52&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52" s="37">
         <v>1</v>
       </c>
       <c r="I52" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J52" s="37">
         <v>1.1036067900341169</v>
       </c>
       <c r="K52" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L52"/>
@@ -25402,21 +25414,21 @@
         <v>76.015899999999419</v>
       </c>
       <c r="G53" s="37" t="b">
-        <f>F53&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H53" s="37">
         <v>2.8157894611358643</v>
       </c>
       <c r="I53" s="47" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J53" s="37">
         <v>32.3820630671025</v>
       </c>
       <c r="K53" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L53"/>
@@ -25444,21 +25456,21 @@
         <v>65.289099999999962</v>
       </c>
       <c r="G54" s="37" t="b">
-        <f>F54&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H54" s="37">
         <v>2.8125</v>
       </c>
       <c r="I54" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J54" s="37">
         <v>30.783266645758495</v>
       </c>
       <c r="K54" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L54"/>
@@ -25486,21 +25498,21 @@
         <v>78.50839999999971</v>
       </c>
       <c r="G55" s="37" t="b">
-        <f>F55&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H55" s="37">
         <v>2.9871795177459717</v>
       </c>
       <c r="I55" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J55" s="37">
         <v>29.964510333861046</v>
       </c>
       <c r="K55" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L55"/>
@@ -25522,21 +25534,21 @@
         <v>28.402900000000045</v>
       </c>
       <c r="G56" s="37" t="b">
-        <f>F56&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H56" s="37">
         <v>0.40740740299224854</v>
       </c>
       <c r="I56" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J56" s="37">
         <v>0.58023418715944042</v>
       </c>
       <c r="K56" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L56"/>
@@ -25558,21 +25570,21 @@
         <v>13.248599999999897</v>
       </c>
       <c r="G57" s="28" t="b">
-        <f>F57&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H57" s="37">
         <v>0.58333331346511841</v>
       </c>
       <c r="I57" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J57" s="37">
         <v>0.74006452402763701</v>
       </c>
       <c r="K57" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L57"/>
@@ -25594,21 +25606,21 @@
         <v>21.231300000000374</v>
       </c>
       <c r="G58" s="28" t="b">
-        <f>F58&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H58" s="37">
         <v>0.44999998807907104</v>
       </c>
       <c r="I58" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J58" s="37">
         <v>0.74302217708618656</v>
       </c>
       <c r="K58" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L58"/>
@@ -25636,21 +25648,21 @@
         <v>70.119099999999889</v>
       </c>
       <c r="G59" s="37" t="b">
-        <f>F59&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H59" s="37">
         <v>3.6428570747375488</v>
       </c>
       <c r="I59" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J59" s="37">
         <v>38.527036348398305</v>
       </c>
       <c r="K59" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L59"/>
@@ -25672,21 +25684,21 @@
         <v>22.983300000000781</v>
       </c>
       <c r="G60" s="28" t="b">
-        <f>F60&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H60" s="37">
         <v>0.59090906381607056</v>
       </c>
       <c r="I60" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J60" s="37">
         <v>0.66954502506777647</v>
       </c>
       <c r="K60" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L60"/>
@@ -25708,21 +25720,21 @@
         <v>11.932800000000498</v>
       </c>
       <c r="G61" s="28" t="b">
-        <f>F61&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H61" s="37">
         <v>0.63636362552642822</v>
       </c>
       <c r="I61" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J61" s="37">
         <v>0.69890479094350266</v>
       </c>
       <c r="K61" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L61"/>
@@ -25750,21 +25762,21 @@
         <v>62.15730000000076</v>
       </c>
       <c r="G62" s="37" t="b">
-        <f>F62&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H62" s="37">
         <v>3.1129031181335449</v>
       </c>
       <c r="I62" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J62" s="37">
         <v>35.5888958277189</v>
       </c>
       <c r="K62" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L62"/>
@@ -25786,21 +25798,21 @@
         <v>21.04910000000018</v>
       </c>
       <c r="G63" s="28" t="b">
-        <f>F63&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H63" s="37">
         <v>0.40000000596046448</v>
       </c>
       <c r="I63" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J63" s="37">
         <v>0.4887094304360855</v>
       </c>
       <c r="K63" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L63"/>
@@ -25828,21 +25840,21 @@
         <v>81.520900000000438</v>
       </c>
       <c r="G64" s="37" t="b">
-        <f>F64&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H64" s="37">
         <v>2.8518519401550293</v>
       </c>
       <c r="I64" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J64" s="37">
         <v>28.223590545854147</v>
       </c>
       <c r="K64" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L64"/>
@@ -25864,21 +25876,21 @@
         <v>42.037800000000061</v>
       </c>
       <c r="G65" s="37" t="b">
-        <f>F65&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H65" s="37">
         <v>0.42500001192092896</v>
       </c>
       <c r="I65" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J65" s="37">
         <v>0.56471149950352761</v>
       </c>
       <c r="K65" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L65"/>
@@ -25906,21 +25918,21 @@
         <v>60.18289999999979</v>
       </c>
       <c r="G66" s="37" t="b">
-        <f>F66&gt;25.78</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H66" s="37">
         <v>3.1525423526763916</v>
       </c>
       <c r="I66" s="40" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J66" s="37">
         <v>30.291621077901546</v>
       </c>
       <c r="K66" s="40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L66"/>
@@ -25942,21 +25954,21 @@
         <v>11.552500000000691</v>
       </c>
       <c r="G67" s="28" t="b">
-        <f>F67&gt;25.78</f>
+        <f t="shared" ref="G67:G98" si="4">F67&gt;25.78</f>
         <v>0</v>
       </c>
       <c r="H67" s="37">
         <v>0.81818181276321411</v>
       </c>
       <c r="I67" s="28" t="b">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J67" s="37">
         <v>0.9073029845076227</v>
       </c>
       <c r="K67" s="28" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L67"/>
@@ -25984,21 +25996,21 @@
         <v>84.791699999999764</v>
       </c>
       <c r="G68" s="37" t="b">
-        <f>F68&gt;25.78</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H68" s="37">
         <v>2.654761791229248</v>
       </c>
       <c r="I68" s="40" t="b">
-        <f t="shared" ref="I68:I82" si="2">H68&gt;1</f>
+        <f t="shared" ref="I68:I82" si="5">H68&gt;1</f>
         <v>1</v>
       </c>
       <c r="J68" s="37">
         <v>22.527665298682898</v>
       </c>
       <c r="K68" s="40" t="b">
-        <f t="shared" ref="K68:K82" si="3">J68&gt;13.06</f>
+        <f t="shared" ref="K68:K82" si="6">J68&gt;13.06</f>
         <v>1</v>
       </c>
       <c r="L68"/>
@@ -26020,21 +26032,21 @@
         <v>19.948700000000827</v>
       </c>
       <c r="G69" s="28" t="b">
-        <f>F69&gt;25.78</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H69" s="37">
         <v>0.3888888955116272</v>
       </c>
       <c r="I69" s="28" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J69" s="37">
         <v>0.51113697075993558</v>
       </c>
       <c r="K69" s="28" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L69"/>
@@ -26062,21 +26074,21 @@
         <v>59.642399999999725</v>
       </c>
       <c r="G70" s="37" t="b">
-        <f>F70&gt;25.78</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H70" s="37">
         <v>3</v>
       </c>
       <c r="I70" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J70" s="37">
         <v>28.490298486411607</v>
       </c>
       <c r="K70" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L70"/>
@@ -26104,21 +26116,21 @@
         <v>86.856600000000071</v>
       </c>
       <c r="G71" s="37" t="b">
-        <f>F71&gt;25.78</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H71" s="37">
         <v>2.2906975746154785</v>
       </c>
       <c r="I71" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J71" s="37">
         <v>18.026299307793511</v>
       </c>
       <c r="K71" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L71"/>
@@ -26140,21 +26152,21 @@
         <v>23.5649999999996</v>
       </c>
       <c r="G72" s="28" t="b">
-        <f>F72&gt;25.78</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H72" s="37">
         <v>0.40909090638160706</v>
       </c>
       <c r="I72" s="28" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J72" s="37">
         <v>0.48080657354696471</v>
       </c>
       <c r="K72" s="28" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L72"/>
@@ -26182,21 +26194,21 @@
         <v>87.815999999999804</v>
       </c>
       <c r="G73" s="37" t="b">
-        <f>F73&gt;25.78</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H73" s="37">
         <v>2.6206896305084229</v>
       </c>
       <c r="I73" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J73" s="37">
         <v>22.956642177692647</v>
       </c>
       <c r="K73" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L73"/>
@@ -26218,21 +26230,21 @@
         <v>37.096699999999146</v>
       </c>
       <c r="G74" s="37" t="b">
-        <f>F74&gt;25.78</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H74" s="37">
         <v>0.34285715222358704</v>
       </c>
       <c r="I74" s="28" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J74" s="37">
         <v>0.54190945240456223</v>
       </c>
       <c r="K74" s="28" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L74"/>
@@ -26260,21 +26272,21 @@
         <v>60.693499999999403</v>
       </c>
       <c r="G75" s="37" t="b">
-        <f>F75&gt;25.78</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H75" s="37">
         <v>3.2166666984558105</v>
       </c>
       <c r="I75" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J75" s="37">
         <v>28.675073742704864</v>
       </c>
       <c r="K75" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L75"/>
@@ -26296,21 +26308,21 @@
         <v>38.993900000000394</v>
       </c>
       <c r="G76" s="37" t="b">
-        <f>F76&gt;25.78</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H76" s="37">
         <v>1</v>
       </c>
       <c r="I76" s="28" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J76" s="37">
         <v>0.84460879844645387</v>
       </c>
       <c r="K76" s="28" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L76"/>
@@ -26338,21 +26350,21 @@
         <v>77.350199999999859</v>
       </c>
       <c r="G77" s="37" t="b">
-        <f>F77&gt;25.78</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H77" s="37">
         <v>2.2105262279510498</v>
       </c>
       <c r="I77" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J77" s="37">
         <v>23.036606215593697</v>
       </c>
       <c r="K77" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L77"/>
@@ -26374,21 +26386,21 @@
         <v>14.864599999999882</v>
       </c>
       <c r="G78" s="28" t="b">
-        <f>F78&gt;25.78</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H78" s="37">
         <v>0.5</v>
       </c>
       <c r="I78" s="28" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J78" s="37">
         <v>0.48889292480595953</v>
       </c>
       <c r="K78" s="28" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L78"/>
@@ -26416,21 +26428,21 @@
         <v>78.228099999999358</v>
       </c>
       <c r="G79" s="37" t="b">
-        <f>F79&gt;25.78</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H79" s="37">
         <v>2.8311688899993896</v>
       </c>
       <c r="I79" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J79" s="37">
         <v>23.186744625182058</v>
       </c>
       <c r="K79" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L79"/>
@@ -26452,21 +26464,21 @@
         <v>14.592599999999948</v>
       </c>
       <c r="G80" s="28" t="b">
-        <f>F80&gt;25.78</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H80" s="37">
         <v>0.23076923191547394</v>
       </c>
       <c r="I80" s="28" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J80" s="37">
         <v>0.28100905848896318</v>
       </c>
       <c r="K80" s="28" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L80"/>
@@ -26494,21 +26506,21 @@
         <v>54.526299999999537</v>
       </c>
       <c r="G81" s="37" t="b">
-        <f>F81&gt;25.78</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H81" s="37">
         <v>3.0370371341705322</v>
       </c>
       <c r="I81" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J81" s="37">
         <v>22.825801307547483</v>
       </c>
       <c r="K81" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L81"/>
@@ -26530,21 +26542,21 @@
         <v>50.074099999999817</v>
       </c>
       <c r="G82" s="37" t="b">
-        <f>F82&gt;25.78</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H82" s="37">
         <v>3.6600000858306885</v>
       </c>
       <c r="I82" s="40" t="b">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="J82" s="37">
         <v>40.553659956034288</v>
       </c>
       <c r="K82" s="40" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="L82"/>
@@ -36750,10 +36762,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFB8381-DD31-440A-AEBF-B7504465E3D2}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N7:N8"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -36768,7 +36780,7 @@
     <col min="17" max="16384" width="10.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -36788,8 +36800,11 @@
       <c r="M1" s="12"/>
       <c r="N1"/>
       <c r="Q1" s="15"/>
-    </row>
-    <row r="2" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R1" s="24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>12</v>
       </c>
@@ -36827,8 +36842,15 @@
       </c>
       <c r="N2"/>
       <c r="Q2" s="15"/>
-    </row>
-    <row r="3" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="24">
+        <f>AVERAGE(I:I)</f>
+        <v>42.75467757496682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>1</v>
       </c>
@@ -36874,8 +36896,15 @@
         <v>0</v>
       </c>
       <c r="Q3" s="15"/>
-    </row>
-    <row r="4" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="24">
+        <f>STDEV(I:I)</f>
+        <v>21.871237405836002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <v>2</v>
       </c>
@@ -36922,7 +36951,7 @@
       </c>
       <c r="Q4" s="15"/>
     </row>
-    <row r="5" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
         <v>3</v>
       </c>
@@ -36969,7 +36998,7 @@
       </c>
       <c r="Q5" s="15"/>
     </row>
-    <row r="6" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>4</v>
       </c>
@@ -37016,7 +37045,7 @@
       </c>
       <c r="Q6" s="15"/>
     </row>
-    <row r="7" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26">
         <v>5</v>
       </c>
@@ -37063,7 +37092,7 @@
       </c>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26">
         <v>6</v>
       </c>
@@ -37110,7 +37139,7 @@
       </c>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
         <v>7</v>
       </c>
@@ -37159,7 +37188,7 @@
       </c>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
         <v>8</v>
       </c>
@@ -37208,7 +37237,7 @@
       </c>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
         <v>9</v>
       </c>
@@ -37257,7 +37286,7 @@
       </c>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
         <v>10</v>
       </c>
@@ -37306,7 +37335,7 @@
       </c>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
         <v>11</v>
       </c>
@@ -37355,7 +37384,7 @@
       </c>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
         <v>12</v>
       </c>
@@ -37404,7 +37433,7 @@
       </c>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>13</v>
       </c>
@@ -37453,7 +37482,7 @@
       </c>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
         <v>14</v>
       </c>
@@ -38197,10 +38226,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E064C-00F5-43C9-868E-76E23D23ADF7}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -38215,7 +38244,7 @@
     <col min="18" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
@@ -38230,8 +38259,11 @@
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
       <c r="N1" s="12"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="T1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -38267,8 +38299,15 @@
         <v>7</v>
       </c>
       <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="T2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="15">
+        <f>AVERAGE(J:J)</f>
+        <v>40.965917976797598</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -38314,8 +38353,15 @@
         <f>N3&gt;1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="T3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="1">
+        <f>STDEV(J:J)</f>
+        <v>20.651792469126978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -38362,7 +38408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -38409,7 +38455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -38460,7 +38506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -38511,7 +38557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -38556,7 +38602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -38607,7 +38653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -38658,7 +38704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -38703,7 +38749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -38754,7 +38800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -38799,7 +38845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -38850,7 +38896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -38901,7 +38947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -39810,10 +39856,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035C1B87-A08B-490A-8E5B-672E77AB3C60}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -39825,7 +39871,7 @@
     <col min="10" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -39842,7 +39888,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -39871,7 +39917,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
@@ -39904,8 +39950,12 @@
         <f>J3&gt;2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
@@ -39938,8 +39988,12 @@
         <f t="shared" ref="K4:K23" si="2">J4&gt;2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>692.10890000000006</v>
       </c>
@@ -39976,8 +40030,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>843.83080000000007</v>
       </c>
@@ -40011,8 +40069,13 @@
         <v>1.1486928285459148</v>
       </c>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6" s="27"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>995.54829999999993</v>
       </c>
@@ -40046,8 +40109,13 @@
         <v>2.177381052467088</v>
       </c>
       <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7" s="27"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1118.2051999999999</v>
       </c>
@@ -40081,8 +40149,13 @@
         <v>1.4876660739674259</v>
       </c>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8" s="27"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1317.1990000000001</v>
       </c>
@@ -40116,8 +40189,13 @@
         <v>2.7425675414159767</v>
       </c>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9" s="27"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1480.1411000000001</v>
       </c>
@@ -40151,8 +40229,13 @@
         <v>1.9218044049663383</v>
       </c>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10" s="27"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1581.9865</v>
       </c>
@@ -40189,8 +40272,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11" s="27"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1683.8302000000001</v>
       </c>
@@ -40224,8 +40312,13 @@
         <v>2.2387041692812608</v>
       </c>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12" s="27"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1887.5141000000001</v>
       </c>
@@ -40259,8 +40352,13 @@
         <v>2.1640657081591193</v>
       </c>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13" s="27"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>2091.1911</v>
       </c>
@@ -40294,8 +40392,13 @@
         <v>2.1429509139477472</v>
       </c>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14" s="27"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2294.8737999999998</v>
       </c>
@@ -40329,8 +40432,13 @@
         <v>2.1144674021310639</v>
       </c>
       <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15" s="27"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>2498.5335</v>
       </c>
@@ -40364,8 +40472,13 @@
         <v>2.4386160937054795</v>
       </c>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16" s="27"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>2702.2017999999998</v>
       </c>
@@ -40399,8 +40512,13 @@
         <v>2.0656513583618312</v>
       </c>
       <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17" s="27"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2905.8652000000002</v>
       </c>
@@ -40434,8 +40552,13 @@
         <v>1.696472559737336</v>
       </c>
       <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18" s="27"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3">
@@ -40468,8 +40591,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19" s="27"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>3109.5308</v>
       </c>
@@ -40503,8 +40631,13 @@
         <v>1.5633987436902037</v>
       </c>
       <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20" s="27"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3">
@@ -40537,8 +40670,13 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21" s="27"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>3314.0886999999998</v>
       </c>
@@ -40572,8 +40710,13 @@
         <v>1.9663865556825333</v>
       </c>
       <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22" s="27"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3">
@@ -40606,8 +40749,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P23" s="27"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>3517.7399</v>
       </c>
@@ -40641,8 +40785,9 @@
         <v>2.5069765535898099</v>
       </c>
       <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="P24" s="27"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3">
@@ -40672,6 +40817,7 @@
         <v>2.6481482628196411</v>
       </c>
       <c r="K25" s="3"/>
+      <c r="P25" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
